--- a/jets/expdata/10001.xlsx
+++ b/jets/expdata/10001.xlsx
@@ -1,39 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yiyu/Google Drive/ing/jefferson lab/scholarship/monte carlo/fitpack2/database/jet/expdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786151CA-54BD-6944-A1E9-B7CE035597E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t>idx</t>
+  </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>particles-in</t>
   </si>
   <si>
     <t>RS</t>
   </si>
   <si>
+    <t>pt-min</t>
+  </si>
+  <si>
+    <t>pt-max</t>
+  </si>
+  <si>
     <t>pT</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>eta-abs-min</t>
+  </si>
+  <si>
+    <t>eta-abs-max</t>
+  </si>
+  <si>
+    <t>cone-radius</t>
   </si>
   <si>
     <t>obs</t>
@@ -45,152 +58,467 @@
     <t>value</t>
   </si>
   <si>
-    <t>ppb</t>
+    <t>stat_u</t>
   </si>
   <si>
-    <t>eta_abs_min</t>
+    <t>%-sys_u</t>
   </si>
   <si>
-    <t>eta_abs_max</t>
+    <t>%-sys01_c</t>
+  </si>
+  <si>
+    <t>%-sys02_c</t>
+  </si>
+  <si>
+    <t>%-sys03_c</t>
+  </si>
+  <si>
+    <t>%-sys04_c</t>
+  </si>
+  <si>
+    <t>%-sys05_c</t>
+  </si>
+  <si>
+    <t>%-sys06_c</t>
+  </si>
+  <si>
+    <t>%-sys07_c</t>
+  </si>
+  <si>
+    <t>%-sys08_c</t>
+  </si>
+  <si>
+    <t>%-sys09_c</t>
+  </si>
+  <si>
+    <t>%-sys10_c</t>
+  </si>
+  <si>
+    <t>%-sys11_c</t>
+  </si>
+  <si>
+    <t>%-sys12_c</t>
+  </si>
+  <si>
+    <t>%-sys13_c</t>
+  </si>
+  <si>
+    <t>%-sys14_c</t>
+  </si>
+  <si>
+    <t>%-sys15_c</t>
+  </si>
+  <si>
+    <t>%-sys16_c</t>
+  </si>
+  <si>
+    <t>%-sys17_c</t>
+  </si>
+  <si>
+    <t>%-sys18_c</t>
+  </si>
+  <si>
+    <t>%-sys19_c</t>
+  </si>
+  <si>
+    <t>%-sys20_c</t>
+  </si>
+  <si>
+    <t>%-sys21_c</t>
+  </si>
+  <si>
+    <t>%-sys22_c</t>
+  </si>
+  <si>
+    <t>%-sys23_c</t>
+  </si>
+  <si>
+    <t>plot-factor</t>
   </si>
   <si>
     <t>d0</t>
   </si>
   <si>
-    <t>pb</t>
-  </si>
-  <si>
-    <t>pt_min</t>
-  </si>
-  <si>
-    <t>pt_max</t>
-  </si>
-  <si>
-    <t>tau</t>
-  </si>
-  <si>
-    <t>plot_factor</t>
-  </si>
-  <si>
-    <t>idx</t>
-  </si>
-  <si>
-    <t>stat_u</t>
-  </si>
-  <si>
-    <t>cone_radius</t>
+    <t>ppb</t>
   </si>
   <si>
     <t>&lt;d2_sigma_over_d_y_d_pt&gt;</t>
   </si>
   <si>
-    <t>%_sys_u</t>
-  </si>
-  <si>
-    <t>%_sys_01_c</t>
-  </si>
-  <si>
-    <t>%_sys_02_c</t>
-  </si>
-  <si>
-    <t>%_sys_03_c</t>
-  </si>
-  <si>
-    <t>%_sys_04_c</t>
-  </si>
-  <si>
-    <t>%_sys_05_c</t>
-  </si>
-  <si>
-    <t>%_sys_06_c</t>
-  </si>
-  <si>
-    <t>%_sys_07_c</t>
-  </si>
-  <si>
-    <t>%_sys_08_c</t>
-  </si>
-  <si>
-    <t>%_sys_09_c</t>
-  </si>
-  <si>
-    <t>%_sys_10_c</t>
-  </si>
-  <si>
-    <t>%_sys_11_c</t>
-  </si>
-  <si>
-    <t>%_sys_12_c</t>
-  </si>
-  <si>
-    <t>%_sys_13_c</t>
-  </si>
-  <si>
-    <t>%_sys_14_c</t>
-  </si>
-  <si>
-    <t>%_sys_15_c</t>
-  </si>
-  <si>
-    <t>%_sys_16_c</t>
-  </si>
-  <si>
-    <t>%_sys_17_c</t>
-  </si>
-  <si>
-    <t>%_sys_18_c</t>
-  </si>
-  <si>
-    <t>%_sys_19_c</t>
-  </si>
-  <si>
-    <t>%_sys_20_c</t>
-  </si>
-  <si>
-    <t>%_sys_21_c</t>
-  </si>
-  <si>
-    <t>%_sys_22_c</t>
-  </si>
-  <si>
-    <t>%_sys_23_c</t>
-  </si>
-  <si>
-    <t>particles_in</t>
+    <t>pb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000E+00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,33 +526,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -273,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -306,26 +920,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -358,23 +955,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,189 +1096,185 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AN123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N111"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.2844827586207" customWidth="1"/>
+    <col min="3" max="3" width="13.8534482758621" customWidth="1"/>
+    <col min="4" max="8" width="10.2844827586207" customWidth="1"/>
+    <col min="9" max="9" width="14.8534482758621" customWidth="1"/>
+    <col min="10" max="10" width="15.5689655172414" customWidth="1"/>
+    <col min="11" max="11" width="14.426724137931" customWidth="1"/>
+    <col min="12" max="12" width="30.7112068965517" customWidth="1"/>
+    <col min="13" max="13" width="10.2844827586207" customWidth="1"/>
+    <col min="14" max="14" width="18.8534482758621" customWidth="1"/>
     <col min="15" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="1026" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.1422413793103" customWidth="1"/>
+    <col min="18" max="19" width="13.5689655172414" customWidth="1"/>
+    <col min="20" max="20" width="13.7112068965517" customWidth="1"/>
+    <col min="21" max="21" width="13.5689655172414" customWidth="1"/>
+    <col min="22" max="22" width="13.7112068965517" customWidth="1"/>
+    <col min="23" max="24" width="13.5689655172414" customWidth="1"/>
+    <col min="25" max="25" width="13.7112068965517" customWidth="1"/>
+    <col min="26" max="26" width="13.1422413793103" customWidth="1"/>
+    <col min="27" max="27" width="12.426724137931" customWidth="1"/>
+    <col min="28" max="29" width="12.8534482758621" customWidth="1"/>
+    <col min="30" max="30" width="13.1422413793103" customWidth="1"/>
+    <col min="31" max="31" width="12.8534482758621" customWidth="1"/>
+    <col min="32" max="32" width="13.1422413793103" customWidth="1"/>
+    <col min="33" max="34" width="12.8534482758621" customWidth="1"/>
+    <col min="35" max="35" width="13.1422413793103" customWidth="1"/>
+    <col min="36" max="36" width="13.5689655172414" customWidth="1"/>
+    <col min="37" max="37" width="12.8534482758621" customWidth="1"/>
+    <col min="38" max="39" width="13.2844827586207" customWidth="1"/>
+    <col min="40" max="40" width="13.1422413793103" customWidth="1"/>
+    <col min="41" max="1026" width="10.2844827586207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" ht="35.6" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" ht="35.6" spans="1:40">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>1960</v>
@@ -714,7 +1290,7 @@
       </c>
       <c r="H2" s="1">
         <f>2*G2/D2</f>
-        <v>5.5612244897959184E-2</v>
+        <v>0.0556122448979592</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -726,19 +1302,19 @@
         <v>0.7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="3">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
         <v>23143</v>
       </c>
       <c r="O2" s="1">
         <v>162</v>
       </c>
       <c r="P2" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q2" s="1">
         <v>2.7</v>
@@ -780,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="AD2" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE2" s="1">
         <v>0</v>
@@ -813,15 +1389,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" ht="35.6" spans="1:40">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1">
         <v>1960</v>
@@ -833,11 +1409,11 @@
         <v>70</v>
       </c>
       <c r="G3" s="1">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="H3" s="1">
         <f>2*G3/D3</f>
-        <v>6.5918367346938775E-2</v>
+        <v>0.0659183673469388</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -849,12 +1425,12 @@
         <v>0.7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
         <v>8818</v>
       </c>
       <c r="O3" s="1">
@@ -924,7 +1500,7 @@
         <v>0.4</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AL3" s="1">
         <v>1.4</v>
@@ -936,15 +1512,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" ht="35.6" spans="1:40">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>1960</v>
@@ -956,11 +1532,11 @@
         <v>80</v>
       </c>
       <c r="G4" s="1">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H24" si="0">2*G4/D4</f>
-        <v>7.6122448979591834E-2</v>
+        <f t="shared" ref="H4:H25" si="0">2*G4/D4</f>
+        <v>0.0761224489795918</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -972,12 +1548,12 @@
         <v>0.7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
         <v>3772</v>
       </c>
       <c r="O4" s="1">
@@ -1059,15 +1635,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" ht="35.6" spans="1:40">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>1960</v>
@@ -1083,7 +1659,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>8.6428571428571438E-2</v>
+        <v>0.0864285714285714</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1095,12 +1671,12 @@
         <v>0.7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2">
         <v>1759</v>
       </c>
       <c r="O5" s="1">
@@ -1113,7 +1689,7 @@
         <v>2.7</v>
       </c>
       <c r="R5" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1155,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AG5" s="1">
         <v>0</v>
@@ -1182,15 +1758,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" ht="35.6" spans="1:40">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>1960</v>
@@ -1206,7 +1782,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>9.6632653061224497E-2</v>
+        <v>0.0966326530612245</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1218,12 +1794,12 @@
         <v>0.7</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3">
+        <v>43</v>
+      </c>
+      <c r="N6" s="2">
         <v>893</v>
       </c>
       <c r="O6" s="1">
@@ -1305,15 +1881,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" ht="35.6" spans="1:40">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>1960</v>
@@ -1329,7 +1905,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.10683673469387756</v>
+        <v>0.106836734693878</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1341,12 +1917,12 @@
         <v>0.7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="3">
+        <v>43</v>
+      </c>
+      <c r="N7" s="2">
         <v>482.8</v>
       </c>
       <c r="O7" s="1">
@@ -1416,7 +1992,7 @@
         <v>2.1</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AL7" s="1">
         <v>1</v>
@@ -1428,15 +2004,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" ht="35.6" spans="1:40">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>1960</v>
@@ -1452,7 +2028,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.11704081632653061</v>
+        <v>0.117040816326531</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1464,13 +2040,13 @@
         <v>0.7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="3">
-        <v>274.39999999999998</v>
+        <v>43</v>
+      </c>
+      <c r="N8" s="2">
+        <v>274.4</v>
       </c>
       <c r="O8" s="1">
         <v>1.4</v>
@@ -1536,7 +2112,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ8" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK8" s="1">
         <v>1.9</v>
@@ -1551,15 +2127,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" ht="35.6" spans="1:40">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>1960</v>
@@ -1575,7 +2151,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.1273469387755102</v>
+        <v>0.12734693877551</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1587,13 +2163,13 @@
         <v>0.7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="3">
-        <v>158.80000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="N9" s="2">
+        <v>158.8</v>
       </c>
       <c r="O9" s="1">
         <v>0.5</v>
@@ -1659,7 +2235,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ9" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK9" s="1">
         <v>1.5</v>
@@ -1674,15 +2250,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" ht="35.6" spans="1:40">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>1960</v>
@@ -1698,7 +2274,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0.13979591836734695</v>
+        <v>0.139795918367347</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1710,12 +2286,12 @@
         <v>0.7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="3">
+        <v>43</v>
+      </c>
+      <c r="N10" s="2">
         <v>86.44</v>
       </c>
       <c r="O10" s="1">
@@ -1761,7 +2337,7 @@
         <v>0.2</v>
       </c>
       <c r="AC10" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AD10" s="1">
         <v>0.6</v>
@@ -1782,7 +2358,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK10" s="1">
         <v>1.2</v>
@@ -1797,15 +2373,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" ht="35.6" spans="1:40">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1960</v>
@@ -1821,7 +2397,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.15510204081632653</v>
+        <v>0.155102040816327</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1833,12 +2409,12 @@
         <v>0.7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="3">
+        <v>43</v>
+      </c>
+      <c r="N11" s="2">
         <v>43.38</v>
       </c>
       <c r="O11" s="1">
@@ -1884,7 +2460,7 @@
         <v>0.1</v>
       </c>
       <c r="AC11" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD11" s="1">
         <v>0.6</v>
@@ -1920,15 +2496,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" ht="35.6" spans="1:40">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>1960</v>
@@ -1944,7 +2520,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>0.17275510204081634</v>
+        <v>0.172755102040816</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1956,12 +2532,12 @@
         <v>0.7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="3">
+        <v>43</v>
+      </c>
+      <c r="N12" s="2">
         <v>21.31</v>
       </c>
       <c r="O12" s="1">
@@ -2043,15 +2619,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" ht="35.6" spans="1:40">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>1960</v>
@@ -2067,7 +2643,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0.19316326530612246</v>
+        <v>0.193163265306122</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -2079,16 +2655,16 @@
         <v>0.7</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="3">
+        <v>43</v>
+      </c>
+      <c r="N13" s="2">
         <v>9.81</v>
       </c>
       <c r="O13" s="1">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="P13" s="1">
         <v>0.5</v>
@@ -2166,15 +2742,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" ht="35.6" spans="1:40">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>1960</v>
@@ -2190,7 +2766,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0.21367346938775511</v>
+        <v>0.213673469387755</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -2202,16 +2778,16 @@
         <v>0.7</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3">
-        <v>4.7190000000000003</v>
+        <v>43</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4.719</v>
       </c>
       <c r="O14" s="1">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="P14" s="1">
         <v>0.5</v>
@@ -2289,15 +2865,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" ht="35.6" spans="1:40">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>1960</v>
@@ -2313,7 +2889,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0.23408163265306123</v>
+        <v>0.234081632653061</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -2325,16 +2901,16 @@
         <v>0.7</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2.4169999999999998</v>
+        <v>43</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2.417</v>
       </c>
       <c r="O15" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="P15" s="1">
         <v>0.5</v>
@@ -2412,15 +2988,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" ht="35.6" spans="1:40">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
         <v>1960</v>
@@ -2436,7 +3012,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>0.25673469387755099</v>
+        <v>0.256734693877551</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -2448,16 +3024,16 @@
         <v>0.7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="3">
+        <v>43</v>
+      </c>
+      <c r="N16" s="2">
         <v>1.177</v>
       </c>
       <c r="O16" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="P16" s="1">
         <v>0.6</v>
@@ -2535,15 +3111,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" ht="35.6" spans="1:40">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1">
         <v>1960</v>
@@ -2559,7 +3135,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>0.28448979591836737</v>
+        <v>0.284489795918367</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -2571,16 +3147,16 @@
         <v>0.7</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.50839999999999996</v>
+        <v>43</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.5084</v>
       </c>
       <c r="O17" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>0.0056</v>
       </c>
       <c r="P17" s="1">
         <v>0.6</v>
@@ -2592,7 +3168,7 @@
         <v>4.7</v>
       </c>
       <c r="S17" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2658,15 +3234,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" ht="35.6" spans="1:40">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>1960</v>
@@ -2678,11 +3254,11 @@
         <v>325</v>
       </c>
       <c r="G18" s="1">
-        <v>308.89999999999998</v>
+        <v>308.9</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>0.31520408163265301</v>
+        <v>0.315204081632653</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -2694,16 +3270,16 @@
         <v>0.7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="3">
+        <v>43</v>
+      </c>
+      <c r="N18" s="2">
         <v>0.2097</v>
       </c>
       <c r="O18" s="1">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="P18" s="1">
         <v>0.7</v>
@@ -2781,15 +3357,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" ht="35.6" spans="1:40">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <v>1960</v>
@@ -2805,7 +3381,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>0.34806122448979593</v>
+        <v>0.348061224489796</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -2817,16 +3393,16 @@
         <v>0.7</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="3">
-        <v>8.1890000000000004E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.08189</v>
       </c>
       <c r="O19" s="1">
-        <v>2.1299999999999999E-3</v>
+        <v>0.00213</v>
       </c>
       <c r="P19" s="1">
         <v>0.8</v>
@@ -2844,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="V19" s="1">
         <v>6.5</v>
@@ -2877,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -2904,15 +3480,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" ht="35.6" spans="1:40">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
         <v>1960</v>
@@ -2928,7 +3504,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0.38591836734693874</v>
+        <v>0.385918367346939</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -2940,22 +3516,22 @@
         <v>0.7</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2.9090000000000001E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.02909</v>
       </c>
       <c r="O20" s="1">
-        <v>1.1900000000000001E-3</v>
+        <v>0.00119</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R20" s="1">
         <v>6.4</v>
@@ -3027,15 +3603,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" ht="35.6" spans="1:40">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1">
         <v>1960</v>
@@ -3051,7 +3627,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0.42877551020408161</v>
+        <v>0.428775510204082</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -3063,22 +3639,22 @@
         <v>0.7</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="3">
-        <v>9.9150000000000002E-3</v>
+        <v>43</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.009915</v>
       </c>
       <c r="O21" s="1">
-        <v>6.5399999999999996E-4</v>
+        <v>0.000654</v>
       </c>
       <c r="P21" s="1">
         <v>1.2</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="R21" s="1">
         <v>7.4</v>
@@ -3117,7 +3693,7 @@
         <v>1.2</v>
       </c>
       <c r="AD21" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE21" s="1">
         <v>0</v>
@@ -3150,15 +3726,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" ht="35.6" spans="1:40">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>1960</v>
@@ -3174,7 +3750,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.47469387755102038</v>
+        <v>0.47469387755102</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -3186,16 +3762,16 @@
         <v>0.7</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3.032E-3</v>
+        <v>43</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.003032</v>
       </c>
       <c r="O22" s="1">
-        <v>3.5799999999999997E-4</v>
+        <v>0.000358</v>
       </c>
       <c r="P22" s="1">
         <v>1.5</v>
@@ -3273,15 +3849,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" ht="35.6" spans="1:40">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
         <v>1960</v>
@@ -3297,7 +3873,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0.52255102040816326</v>
+        <v>0.522551020408163</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -3309,16 +3885,16 @@
         <v>0.7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="3">
-        <v>5.9250000000000004E-4</v>
+        <v>43</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.0005925</v>
       </c>
       <c r="O23" s="1">
-        <v>1.529E-4</v>
+        <v>0.0001529</v>
       </c>
       <c r="P23" s="1">
         <v>2.1</v>
@@ -3384,7 +3960,7 @@
         <v>1.4</v>
       </c>
       <c r="AK23" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3396,15 +3972,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" ht="35.6" spans="1:40">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>1960</v>
@@ -3416,11 +3992,11 @@
         <v>665</v>
       </c>
       <c r="G24" s="1">
-        <v>584.79999999999995</v>
+        <v>584.8</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0.59673469387755096</v>
+        <v>0.596734693877551</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -3432,102 +4008,102 @@
         <v>0.7</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="3">
-        <v>8.9170000000000002E-5</v>
-      </c>
-      <c r="O24" s="2">
-        <v>3.6380000000000001E-5</v>
-      </c>
-      <c r="P24" s="2">
+        <v>43</v>
+      </c>
+      <c r="N24" s="2">
+        <v>8.917e-5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3.638e-5</v>
+      </c>
+      <c r="P24" s="3">
         <v>3.1</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="3">
         <v>8</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="3">
         <v>12.5</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="3">
         <v>10.6</v>
       </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>8</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="3">
         <v>6.5</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="3">
         <v>1.5</v>
       </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24" s="3">
         <v>0.2</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AB24" s="3">
         <v>0.1</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC24" s="3">
         <v>1.5</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24" s="3">
         <v>2.4</v>
       </c>
-      <c r="AE24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>5.5</v>
       </c>
-      <c r="AG24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2">
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
         <v>0.9</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AJ24" s="3">
         <v>1.5</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AK24" s="3">
         <v>1.2</v>
       </c>
-      <c r="AL24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2">
+      <c r="AL24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="3">
         <v>3.3</v>
       </c>
       <c r="AN24" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" ht="35.6" spans="1:40">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1">
         <v>1960</v>
@@ -3542,8 +4118,8 @@
         <v>54.5</v>
       </c>
       <c r="H25" s="1">
-        <f>2*G25/D25</f>
-        <v>5.5612244897959184E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0556122448979592</v>
       </c>
       <c r="I25" s="1">
         <v>0.4</v>
@@ -3555,12 +4131,12 @@
         <v>0.7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" s="3">
+        <v>43</v>
+      </c>
+      <c r="N25" s="2">
         <v>21566</v>
       </c>
       <c r="O25" s="1">
@@ -3606,7 +4182,7 @@
         <v>0.5</v>
       </c>
       <c r="AC25" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AD25" s="1">
         <v>1.2</v>
@@ -3642,15 +4218,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" ht="35.6" spans="1:40">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1">
         <v>1960</v>
@@ -3662,11 +4238,11 @@
         <v>70</v>
       </c>
       <c r="G26" s="1">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H46" si="1">2*G26/D26</f>
-        <v>6.5918367346938775E-2</v>
+        <f t="shared" ref="H26:H47" si="1">2*G26/D26</f>
+        <v>0.0659183673469388</v>
       </c>
       <c r="I26" s="1">
         <v>0.4</v>
@@ -3678,12 +4254,12 @@
         <v>0.7</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" s="3">
+        <v>43</v>
+      </c>
+      <c r="N26" s="2">
         <v>8106</v>
       </c>
       <c r="O26" s="1">
@@ -3732,7 +4308,7 @@
         <v>3.8</v>
       </c>
       <c r="AD26" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE26" s="1">
         <v>0.5</v>
@@ -3765,15 +4341,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" ht="35.6" spans="1:40">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
         <v>1960</v>
@@ -3785,11 +4361,11 @@
         <v>80</v>
       </c>
       <c r="G27" s="1">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>7.6122448979591834E-2</v>
+        <v>0.0761224489795918</v>
       </c>
       <c r="I27" s="1">
         <v>0.4</v>
@@ -3801,12 +4377,12 @@
         <v>0.7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="3">
+        <v>43</v>
+      </c>
+      <c r="N27" s="2">
         <v>3471</v>
       </c>
       <c r="O27" s="1">
@@ -3819,7 +4395,7 @@
         <v>2.7</v>
       </c>
       <c r="R27" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -3888,15 +4464,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" ht="35.6" spans="1:40">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
         <v>1960</v>
@@ -3912,7 +4488,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>8.6428571428571438E-2</v>
+        <v>0.0864285714285714</v>
       </c>
       <c r="I28" s="1">
         <v>0.4</v>
@@ -3924,12 +4500,12 @@
         <v>0.7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="3">
+        <v>43</v>
+      </c>
+      <c r="N28" s="2">
         <v>1611</v>
       </c>
       <c r="O28" s="1">
@@ -3984,7 +4560,7 @@
         <v>0.4</v>
       </c>
       <c r="AF28" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AG28" s="1">
         <v>0</v>
@@ -4011,15 +4587,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" ht="35.6" spans="1:40">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
         <v>1960</v>
@@ -4035,7 +4611,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>9.6632653061224497E-2</v>
+        <v>0.0966326530612245</v>
       </c>
       <c r="I29" s="1">
         <v>0.4</v>
@@ -4047,12 +4623,12 @@
         <v>0.7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="3">
+        <v>43</v>
+      </c>
+      <c r="N29" s="2">
         <v>799.8</v>
       </c>
       <c r="O29" s="1">
@@ -4122,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="AK29" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AL29" s="1">
         <v>1.4</v>
@@ -4134,15 +4710,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" ht="35.6" spans="1:40">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1">
         <v>1960</v>
@@ -4158,7 +4734,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>0.10683673469387756</v>
+        <v>0.106836734693878</v>
       </c>
       <c r="I30" s="1">
         <v>0.4</v>
@@ -4170,12 +4746,12 @@
         <v>0.7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="3">
+        <v>43</v>
+      </c>
+      <c r="N30" s="2">
         <v>435.3</v>
       </c>
       <c r="O30" s="1">
@@ -4212,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA30" s="1">
         <v>0.5</v>
@@ -4257,15 +4833,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" ht="35.6" spans="1:40">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1">
         <v>1960</v>
@@ -4281,7 +4857,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>0.11704081632653061</v>
+        <v>0.117040816326531</v>
       </c>
       <c r="I31" s="1">
         <v>0.4</v>
@@ -4293,12 +4869,12 @@
         <v>0.7</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="3">
+        <v>43</v>
+      </c>
+      <c r="N31" s="2">
         <v>241.5</v>
       </c>
       <c r="O31" s="1">
@@ -4335,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA31" s="1">
         <v>0.4</v>
@@ -4365,7 +4941,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ31" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK31" s="1">
         <v>1.6</v>
@@ -4380,15 +4956,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" ht="35.6" spans="1:40">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1">
         <v>1960</v>
@@ -4404,7 +4980,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>0.1273469387755102</v>
+        <v>0.12734693877551</v>
       </c>
       <c r="I32" s="1">
         <v>0.4</v>
@@ -4416,12 +4992,12 @@
         <v>0.7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="3">
+        <v>43</v>
+      </c>
+      <c r="N32" s="2">
         <v>140.9</v>
       </c>
       <c r="O32" s="1">
@@ -4458,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA32" s="1">
         <v>0.3</v>
@@ -4488,7 +5064,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ32" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK32" s="1">
         <v>1.3</v>
@@ -4503,15 +5079,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" ht="35.6" spans="1:40">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
         <v>1960</v>
@@ -4527,7 +5103,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>0.13979591836734695</v>
+        <v>0.139795918367347</v>
       </c>
       <c r="I33" s="1">
         <v>0.4</v>
@@ -4539,12 +5115,12 @@
         <v>0.7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="3">
+        <v>43</v>
+      </c>
+      <c r="N33" s="2">
         <v>76.38</v>
       </c>
       <c r="O33" s="1">
@@ -4581,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA33" s="1">
         <v>0.3</v>
@@ -4611,10 +5187,10 @@
         <v>0.5</v>
       </c>
       <c r="AJ33" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK33" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -4626,15 +5202,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" ht="35.6" spans="1:40">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1">
         <v>1960</v>
@@ -4650,7 +5226,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>0.15510204081632653</v>
+        <v>0.155102040816327</v>
       </c>
       <c r="I34" s="1">
         <v>0.4</v>
@@ -4662,13 +5238,13 @@
         <v>0.7</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="3">
-        <v>38.049999999999997</v>
+        <v>43</v>
+      </c>
+      <c r="N34" s="2">
+        <v>38.05</v>
       </c>
       <c r="O34" s="1">
         <v>0.23</v>
@@ -4704,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA34" s="1">
         <v>0.2</v>
@@ -4713,7 +5289,7 @@
         <v>0.2</v>
       </c>
       <c r="AC34" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AD34" s="1">
         <v>0.7</v>
@@ -4749,15 +5325,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" ht="35.6" spans="1:40">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1">
         <v>1960</v>
@@ -4773,7 +5349,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>0.17265306122448978</v>
+        <v>0.17265306122449</v>
       </c>
       <c r="I35" s="1">
         <v>0.4</v>
@@ -4785,12 +5361,12 @@
         <v>0.7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="3">
+        <v>43</v>
+      </c>
+      <c r="N35" s="2">
         <v>18.11</v>
       </c>
       <c r="O35" s="1">
@@ -4827,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA35" s="1">
         <v>0.1</v>
@@ -4872,15 +5448,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" ht="35.6" spans="1:40">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1">
         <v>1960</v>
@@ -4896,7 +5472,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>0.19316326530612246</v>
+        <v>0.193163265306122</v>
       </c>
       <c r="I36" s="1">
         <v>0.4</v>
@@ -4908,16 +5484,16 @@
         <v>0.7</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="3">
-        <v>8.1050000000000004</v>
+        <v>43</v>
+      </c>
+      <c r="N36" s="2">
+        <v>8.105</v>
       </c>
       <c r="O36" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="P36" s="1">
         <v>0.6</v>
@@ -4950,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA36" s="1">
         <v>0</v>
@@ -4995,15 +5571,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" ht="35.6" spans="1:40">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1">
         <v>1960</v>
@@ -5019,7 +5595,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>0.21367346938775511</v>
+        <v>0.213673469387755</v>
       </c>
       <c r="I37" s="1">
         <v>0.4</v>
@@ -5031,16 +5607,16 @@
         <v>0.7</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="3">
-        <v>3.7789999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="N37" s="2">
+        <v>3.779</v>
       </c>
       <c r="O37" s="1">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="P37" s="1">
         <v>0.6</v>
@@ -5049,7 +5625,7 @@
         <v>3.4</v>
       </c>
       <c r="R37" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S37" s="1">
         <v>1.6</v>
@@ -5073,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA37" s="1">
         <v>0</v>
@@ -5118,15 +5694,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" ht="35.6" spans="1:40">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1">
         <v>1960</v>
@@ -5142,7 +5718,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>0.23408163265306123</v>
+        <v>0.234081632653061</v>
       </c>
       <c r="I38" s="1">
         <v>0.4</v>
@@ -5154,16 +5730,16 @@
         <v>0.7</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="3">
+        <v>43</v>
+      </c>
+      <c r="N38" s="2">
         <v>1.853</v>
       </c>
       <c r="O38" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="P38" s="1">
         <v>0.7</v>
@@ -5172,7 +5748,7 @@
         <v>3.5</v>
       </c>
       <c r="R38" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S38" s="1">
         <v>1.9</v>
@@ -5196,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA38" s="1">
         <v>0.1</v>
@@ -5241,15 +5817,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" ht="35.6" spans="1:40">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1">
         <v>1960</v>
@@ -5265,7 +5841,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>0.25673469387755099</v>
+        <v>0.256734693877551</v>
       </c>
       <c r="I39" s="1">
         <v>0.4</v>
@@ -5277,16 +5853,16 @@
         <v>0.7</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0.87180000000000002</v>
+        <v>43</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.8718</v>
       </c>
       <c r="O39" s="1">
-        <v>7.7999999999999996E-3</v>
+        <v>0.0078</v>
       </c>
       <c r="P39" s="1">
         <v>0.7</v>
@@ -5298,7 +5874,7 @@
         <v>4.8</v>
       </c>
       <c r="S39" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T39" s="1">
         <v>0</v>
@@ -5364,15 +5940,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" ht="35.6" spans="1:40">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1">
         <v>1960</v>
@@ -5388,7 +5964,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>0.28448979591836737</v>
+        <v>0.284489795918367</v>
       </c>
       <c r="I40" s="1">
         <v>0.4</v>
@@ -5400,16 +5976,16 @@
         <v>0.7</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0.35320000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.3532</v>
       </c>
       <c r="O40" s="1">
-        <v>4.5999999999999999E-3</v>
+        <v>0.0046</v>
       </c>
       <c r="P40" s="1">
         <v>0.8</v>
@@ -5487,15 +6063,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" ht="35.6" spans="1:40">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1">
         <v>1960</v>
@@ -5511,7 +6087,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>0.31510204081632653</v>
+        <v>0.315102040816327</v>
       </c>
       <c r="I41" s="1">
         <v>0.4</v>
@@ -5523,16 +6099,16 @@
         <v>0.7</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" s="3">
+        <v>43</v>
+      </c>
+      <c r="N41" s="2">
         <v>0.1381</v>
       </c>
       <c r="O41" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>0.0029</v>
       </c>
       <c r="P41" s="1">
         <v>0.9</v>
@@ -5583,7 +6159,7 @@
         <v>0.8</v>
       </c>
       <c r="AF41" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AG41" s="1">
         <v>0</v>
@@ -5610,15 +6186,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" ht="35.6" spans="1:40">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1">
         <v>1960</v>
@@ -5634,7 +6210,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>0.34785714285714281</v>
+        <v>0.347857142857143</v>
       </c>
       <c r="I42" s="1">
         <v>0.4</v>
@@ -5646,19 +6222,19 @@
         <v>0.7</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="3">
-        <v>5.2699999999999997E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.0527</v>
       </c>
       <c r="O42" s="1">
-        <v>1.6299999999999999E-3</v>
+        <v>0.00163</v>
       </c>
       <c r="P42" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q42" s="1">
         <v>4.7</v>
@@ -5667,7 +6243,7 @@
         <v>6.6</v>
       </c>
       <c r="S42" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -5700,7 +6276,7 @@
         <v>1.5</v>
       </c>
       <c r="AD42" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE42" s="1">
         <v>1</v>
@@ -5733,15 +6309,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" ht="35.6" spans="1:40">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1">
         <v>1960</v>
@@ -5757,7 +6333,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="1"/>
-        <v>0.38571428571428573</v>
+        <v>0.385714285714286</v>
       </c>
       <c r="I43" s="1">
         <v>0.4</v>
@@ -5769,16 +6345,16 @@
         <v>0.7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1.5389999999999999E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0.01539</v>
       </c>
       <c r="O43" s="1">
-        <v>8.1999999999999998E-4</v>
+        <v>0.00082</v>
       </c>
       <c r="P43" s="1">
         <v>1.3</v>
@@ -5790,7 +6366,7 @@
         <v>7.5</v>
       </c>
       <c r="S43" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
@@ -5802,7 +6378,7 @@
         <v>6.5</v>
       </c>
       <c r="W43" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="X43" s="1">
         <v>0</v>
@@ -5856,15 +6432,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" ht="35.6" spans="1:40">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1">
         <v>1960</v>
@@ -5880,7 +6456,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>0.42846938775510202</v>
+        <v>0.428469387755102</v>
       </c>
       <c r="I44" s="1">
         <v>0.4</v>
@@ -5892,16 +6468,16 @@
         <v>0.7</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3.741E-3</v>
+        <v>43</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.003741</v>
       </c>
       <c r="O44" s="1">
-        <v>3.6699999999999998E-4</v>
+        <v>0.000367</v>
       </c>
       <c r="P44" s="1">
         <v>1.8</v>
@@ -5910,7 +6486,7 @@
         <v>6</v>
       </c>
       <c r="R44" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="S44" s="1">
         <v>6.4</v>
@@ -5925,7 +6501,7 @@
         <v>6.5</v>
       </c>
       <c r="W44" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -5937,7 +6513,7 @@
         <v>1.7</v>
       </c>
       <c r="AA44" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB44" s="1">
         <v>0.1</v>
@@ -5964,7 +6540,7 @@
         <v>0.9</v>
       </c>
       <c r="AJ44" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AK44" s="1">
         <v>1</v>
@@ -5973,21 +6549,21 @@
         <v>0</v>
       </c>
       <c r="AM44" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AN44" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" ht="35.6" spans="1:40">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>1960</v>
@@ -6003,7 +6579,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="1"/>
-        <v>0.47622448979591836</v>
+        <v>0.476224489795918</v>
       </c>
       <c r="I45" s="1">
         <v>0.4</v>
@@ -6015,16 +6591,16 @@
         <v>0.7</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" s="3">
-        <v>7.3789999999999999E-4</v>
+        <v>43</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.0007379</v>
       </c>
       <c r="O45" s="1">
-        <v>1.505E-4</v>
+        <v>0.0001505</v>
       </c>
       <c r="P45" s="1">
         <v>2.4</v>
@@ -6036,7 +6612,7 @@
         <v>10.5</v>
       </c>
       <c r="S45" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
@@ -6072,10 +6648,10 @@
         <v>2.1</v>
       </c>
       <c r="AE45" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AF45" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AG45" s="1">
         <v>0</v>
@@ -6102,15 +6678,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" ht="35.6" spans="1:40">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1">
         <v>1960</v>
@@ -6126,7 +6702,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="1"/>
-        <v>0.55091836734693878</v>
+        <v>0.550918367346939</v>
       </c>
       <c r="I46" s="1">
         <v>0.4</v>
@@ -6138,102 +6714,102 @@
         <v>0.7</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="3">
-        <v>6.0210000000000001E-5</v>
-      </c>
-      <c r="O46" s="2">
-        <v>2.457E-5</v>
-      </c>
-      <c r="P46" s="2">
+        <v>43</v>
+      </c>
+      <c r="N46" s="2">
+        <v>6.021e-5</v>
+      </c>
+      <c r="O46" s="3">
+        <v>2.457e-5</v>
+      </c>
+      <c r="P46" s="3">
         <v>3.7</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="3">
         <v>8.6</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="3">
         <v>13.4</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="3">
         <v>11.3</v>
       </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>9</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="3">
         <v>6.5</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="3">
         <v>8</v>
       </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>2.4</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AA46" s="3">
         <v>2.6</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AB46" s="3">
         <v>0.1</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AC46" s="3">
         <v>1.7</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46" s="3">
         <v>3.1</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AE46" s="3">
         <v>3.4</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AF46" s="3">
         <v>6</v>
       </c>
-      <c r="AG46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="2">
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3">
         <v>0.3</v>
       </c>
-      <c r="AI46" s="2">
+      <c r="AI46" s="3">
         <v>0.9</v>
       </c>
-      <c r="AJ46" s="2">
+      <c r="AJ46" s="3">
         <v>1.8</v>
       </c>
-      <c r="AK46" s="2">
+      <c r="AK46" s="3">
         <v>1.3</v>
       </c>
-      <c r="AL46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="2">
+      <c r="AL46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="3">
         <v>3</v>
       </c>
       <c r="AN46" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" ht="35.6" spans="1:40">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>1960</v>
@@ -6248,8 +6824,8 @@
         <v>54.5</v>
       </c>
       <c r="H47" s="1">
-        <f>2*G47/D47</f>
-        <v>5.5612244897959184E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.0556122448979592</v>
       </c>
       <c r="I47" s="1">
         <v>0.8</v>
@@ -6261,12 +6837,12 @@
         <v>0.7</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="3">
+        <v>43</v>
+      </c>
+      <c r="N47" s="2">
         <v>17563</v>
       </c>
       <c r="O47" s="1">
@@ -6279,7 +6855,7 @@
         <v>2.7</v>
       </c>
       <c r="R47" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="S47" s="1">
         <v>0</v>
@@ -6348,15 +6924,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" ht="35.6" spans="1:40">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1">
         <v>1960</v>
@@ -6368,11 +6944,11 @@
         <v>70</v>
       </c>
       <c r="G48" s="1">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:H93" si="2">2*G48/D48</f>
-        <v>6.5918367346938775E-2</v>
+        <v>0.0659183673469388</v>
       </c>
       <c r="I48" s="1">
         <v>0.8</v>
@@ -6384,12 +6960,12 @@
         <v>0.7</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="3">
+        <v>43</v>
+      </c>
+      <c r="N48" s="2">
         <v>6579</v>
       </c>
       <c r="O48" s="1">
@@ -6402,7 +6978,7 @@
         <v>2.7</v>
       </c>
       <c r="R48" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="S48" s="1">
         <v>0.1</v>
@@ -6426,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AA48" s="1">
         <v>0.9</v>
@@ -6471,15 +7047,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" ht="35.6" spans="1:40">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D49" s="1">
         <v>1960</v>
@@ -6491,11 +7067,11 @@
         <v>80</v>
       </c>
       <c r="G49" s="1">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>7.6122448979591834E-2</v>
+        <v>0.0761224489795918</v>
       </c>
       <c r="I49" s="1">
         <v>0.8</v>
@@ -6507,19 +7083,19 @@
         <v>0.7</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="3">
+        <v>43</v>
+      </c>
+      <c r="N49" s="2">
         <v>2786</v>
       </c>
       <c r="O49" s="1">
         <v>55</v>
       </c>
       <c r="P49" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q49" s="1">
         <v>2.7</v>
@@ -6594,15 +7170,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" ht="35.6" spans="1:40">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D50" s="1">
         <v>1960</v>
@@ -6618,7 +7194,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
-        <v>8.6428571428571438E-2</v>
+        <v>0.0864285714285714</v>
       </c>
       <c r="I50" s="1">
         <v>0.8</v>
@@ -6630,12 +7206,12 @@
         <v>0.7</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N50" s="3">
+        <v>43</v>
+      </c>
+      <c r="N50" s="2">
         <v>1283</v>
       </c>
       <c r="O50" s="1">
@@ -6705,7 +7281,7 @@
         <v>1.7</v>
       </c>
       <c r="AK50" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AL50" s="1">
         <v>3.9</v>
@@ -6717,15 +7293,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" ht="35.6" spans="1:40">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1">
         <v>1960</v>
@@ -6741,7 +7317,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
-        <v>9.6632653061224497E-2</v>
+        <v>0.0966326530612245</v>
       </c>
       <c r="I51" s="1">
         <v>0.8</v>
@@ -6753,12 +7329,12 @@
         <v>0.7</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N51" s="3">
+        <v>43</v>
+      </c>
+      <c r="N51" s="2">
         <v>654</v>
       </c>
       <c r="O51" s="1">
@@ -6798,7 +7374,7 @@
         <v>1.9</v>
       </c>
       <c r="AA51" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB51" s="1">
         <v>1.8</v>
@@ -6840,15 +7416,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" ht="35.6" spans="1:40">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1">
         <v>1960</v>
@@ -6864,7 +7440,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
-        <v>0.10683673469387756</v>
+        <v>0.106836734693878</v>
       </c>
       <c r="I52" s="1">
         <v>0.8</v>
@@ -6876,16 +7452,16 @@
         <v>0.7</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" s="3">
+        <v>43</v>
+      </c>
+      <c r="N52" s="2">
         <v>338</v>
       </c>
       <c r="O52" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="P52" s="1">
         <v>0.9</v>
@@ -6921,7 +7497,7 @@
         <v>1.8</v>
       </c>
       <c r="AA52" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB52" s="1">
         <v>1.7</v>
@@ -6948,7 +7524,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ52" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK52" s="1">
         <v>1.6</v>
@@ -6963,15 +7539,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" ht="35.6" spans="1:40">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D53" s="1">
         <v>1960</v>
@@ -6987,7 +7563,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
-        <v>0.11928571428571429</v>
+        <v>0.119285714285714</v>
       </c>
       <c r="I53" s="1">
         <v>0.8</v>
@@ -6999,12 +7575,12 @@
         <v>0.7</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N53" s="3">
+        <v>43</v>
+      </c>
+      <c r="N53" s="2">
         <v>169</v>
       </c>
       <c r="O53" s="1">
@@ -7071,7 +7647,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ53" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AK53" s="1">
         <v>1.3</v>
@@ -7086,15 +7662,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" ht="35.6" spans="1:40">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1">
         <v>1960</v>
@@ -7110,7 +7686,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
-        <v>0.13469387755102041</v>
+        <v>0.13469387755102</v>
       </c>
       <c r="I54" s="1">
         <v>0.8</v>
@@ -7122,13 +7698,13 @@
         <v>0.7</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N54" s="3">
-        <v>74.540000000000006</v>
+        <v>43</v>
+      </c>
+      <c r="N54" s="2">
+        <v>74.54</v>
       </c>
       <c r="O54" s="1">
         <v>0.6</v>
@@ -7194,10 +7770,10 @@
         <v>0.2</v>
       </c>
       <c r="AJ54" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AK54" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AL54" s="1">
         <v>1.4</v>
@@ -7209,15 +7785,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" ht="35.6" spans="1:40">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1">
         <v>1960</v>
@@ -7245,13 +7821,13 @@
         <v>0.7</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N55" s="3">
-        <v>36.130000000000003</v>
+        <v>43</v>
+      </c>
+      <c r="N55" s="2">
+        <v>36.13</v>
       </c>
       <c r="O55" s="1">
         <v>0.18</v>
@@ -7317,7 +7893,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ55" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK55" s="1">
         <v>0.8</v>
@@ -7332,15 +7908,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" ht="35.6" spans="1:40">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D56" s="1">
         <v>1960</v>
@@ -7356,7 +7932,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="2"/>
-        <v>0.1653061224489796</v>
+        <v>0.16530612244898</v>
       </c>
       <c r="I56" s="1">
         <v>0.8</v>
@@ -7368,16 +7944,16 @@
         <v>0.7</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="3">
-        <v>17.940000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="N56" s="2">
+        <v>17.94</v>
       </c>
       <c r="O56" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="P56" s="1">
         <v>0.9</v>
@@ -7455,15 +8031,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" ht="35.6" spans="1:40">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D57" s="1">
         <v>1960</v>
@@ -7479,7 +8055,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="2"/>
-        <v>0.18285714285714286</v>
+        <v>0.182857142857143</v>
       </c>
       <c r="I57" s="1">
         <v>0.8</v>
@@ -7491,16 +8067,16 @@
         <v>0.7</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="3">
-        <v>8.4580000000000002</v>
+        <v>43</v>
+      </c>
+      <c r="N57" s="2">
+        <v>8.458</v>
       </c>
       <c r="O57" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.085</v>
       </c>
       <c r="P57" s="1">
         <v>1</v>
@@ -7509,7 +8085,7 @@
         <v>3.3</v>
       </c>
       <c r="R57" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S57" s="1">
         <v>1.8</v>
@@ -7542,7 +8118,7 @@
         <v>1.7</v>
       </c>
       <c r="AC57" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AD57" s="1">
         <v>1.3</v>
@@ -7578,15 +8154,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" ht="35.6" spans="1:40">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D58" s="1">
         <v>1960</v>
@@ -7602,7 +8178,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" si="2"/>
-        <v>0.20336734693877553</v>
+        <v>0.203367346938776</v>
       </c>
       <c r="I58" s="1">
         <v>0.8</v>
@@ -7614,19 +8190,19 @@
         <v>0.7</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="3">
+        <v>43</v>
+      </c>
+      <c r="N58" s="2">
         <v>3.641</v>
       </c>
       <c r="O58" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="P58" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q58" s="1">
         <v>3.5</v>
@@ -7635,7 +8211,7 @@
         <v>4.5</v>
       </c>
       <c r="S58" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
@@ -7665,7 +8241,7 @@
         <v>1.7</v>
       </c>
       <c r="AC58" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD58" s="1">
         <v>1.4</v>
@@ -7701,15 +8277,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" ht="35.6" spans="1:40">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D59" s="1">
         <v>1960</v>
@@ -7725,7 +8301,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="2"/>
-        <v>0.22377551020408165</v>
+        <v>0.223775510204082</v>
       </c>
       <c r="I59" s="1">
         <v>0.8</v>
@@ -7737,16 +8313,16 @@
         <v>0.7</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N59" s="3">
+        <v>43</v>
+      </c>
+      <c r="N59" s="2">
         <v>1.633</v>
       </c>
       <c r="O59" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="P59" s="1">
         <v>1.2</v>
@@ -7755,7 +8331,7 @@
         <v>3.7</v>
       </c>
       <c r="R59" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="S59" s="1">
         <v>2.6</v>
@@ -7782,7 +8358,7 @@
         <v>2.1</v>
       </c>
       <c r="AA59" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AB59" s="1">
         <v>1.8</v>
@@ -7824,15 +8400,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" ht="35.6" spans="1:40">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1">
         <v>1960</v>
@@ -7848,7 +8424,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" si="2"/>
-        <v>0.2442857142857143</v>
+        <v>0.244285714285714</v>
       </c>
       <c r="I60" s="1">
         <v>0.8</v>
@@ -7860,16 +8436,16 @@
         <v>0.7</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.75700000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0.757</v>
       </c>
       <c r="O60" s="1">
-        <v>7.6E-3</v>
+        <v>0.0076</v>
       </c>
       <c r="P60" s="1">
         <v>1.3</v>
@@ -7902,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AA60" s="1">
         <v>2.4</v>
@@ -7947,15 +8523,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" ht="35.6" spans="1:40">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1">
         <v>1960</v>
@@ -7967,11 +8543,11 @@
         <v>270</v>
       </c>
       <c r="G61" s="1">
-        <v>259.39999999999998</v>
+        <v>259.4</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" si="2"/>
-        <v>0.26469387755102036</v>
+        <v>0.26469387755102</v>
       </c>
       <c r="I61" s="1">
         <v>0.8</v>
@@ -7983,16 +8559,16 @@
         <v>0.7</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0.35510000000000003</v>
+        <v>43</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.3551</v>
       </c>
       <c r="O61" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="P61" s="1">
         <v>1.5</v>
@@ -8025,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AA61" s="1">
         <v>2.8</v>
@@ -8070,15 +8646,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" ht="35.6" spans="1:40">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D62" s="1">
         <v>1960</v>
@@ -8090,11 +8666,11 @@
         <v>300</v>
       </c>
       <c r="G62" s="1">
-        <v>283.60000000000002</v>
+        <v>283.6</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="2"/>
-        <v>0.28938775510204084</v>
+        <v>0.289387755102041</v>
       </c>
       <c r="I62" s="1">
         <v>0.8</v>
@@ -8106,28 +8682,28 @@
         <v>0.7</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.14299999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.143</v>
       </c>
       <c r="O62" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>0.0026</v>
       </c>
       <c r="P62" s="1">
         <v>1.8</v>
       </c>
       <c r="Q62" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R62" s="1">
         <v>6.4</v>
       </c>
       <c r="S62" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -8139,7 +8715,7 @@
         <v>6.5</v>
       </c>
       <c r="W62" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="X62" s="1">
         <v>0</v>
@@ -8193,15 +8769,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" ht="35.6" spans="1:40">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D63" s="1">
         <v>1960</v>
@@ -8213,11 +8789,11 @@
         <v>335</v>
       </c>
       <c r="G63" s="1">
-        <v>315.60000000000002</v>
+        <v>315.6</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="2"/>
-        <v>0.32204081632653064</v>
+        <v>0.322040816326531</v>
       </c>
       <c r="I63" s="1">
         <v>0.8</v>
@@ -8229,22 +8805,22 @@
         <v>0.7</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N63" s="3">
-        <v>4.104E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.04104</v>
       </c>
       <c r="O63" s="1">
-        <v>1.23E-3</v>
+        <v>0.00123</v>
       </c>
       <c r="P63" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Q63" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="R63" s="1">
         <v>7.3</v>
@@ -8274,10 +8850,10 @@
         <v>2.7</v>
       </c>
       <c r="AA63" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AB63" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC63" s="1">
         <v>1.9</v>
@@ -8316,15 +8892,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" ht="35.6" spans="1:40">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D64" s="1">
         <v>1960</v>
@@ -8340,7 +8916,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" si="2"/>
-        <v>0.35969387755102039</v>
+        <v>0.35969387755102</v>
       </c>
       <c r="I64" s="1">
         <v>0.8</v>
@@ -8352,16 +8928,16 @@
         <v>0.7</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N64" s="3">
-        <v>1.03E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.0103</v>
       </c>
       <c r="O64" s="1">
-        <v>5.4000000000000001E-4</v>
+        <v>0.00054</v>
       </c>
       <c r="P64" s="1">
         <v>3.1</v>
@@ -8439,15 +9015,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" ht="35.6" spans="1:40">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1">
         <v>1960</v>
@@ -8463,7 +9039,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" si="2"/>
-        <v>0.40040816326530609</v>
+        <v>0.400408163265306</v>
       </c>
       <c r="I65" s="1">
         <v>0.8</v>
@@ -8475,16 +9051,16 @@
         <v>0.7</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N65" s="3">
-        <v>2.3879999999999999E-3</v>
+        <v>43</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.002388</v>
       </c>
       <c r="O65" s="1">
-        <v>2.3599999999999999E-4</v>
+        <v>0.000236</v>
       </c>
       <c r="P65" s="1">
         <v>4.5</v>
@@ -8493,7 +9069,7 @@
         <v>6.7</v>
       </c>
       <c r="R65" s="1">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="S65" s="1">
         <v>8.1</v>
@@ -8529,10 +9105,10 @@
         <v>1.9</v>
       </c>
       <c r="AD65" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AE65" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AF65" s="1">
         <v>2.8</v>
@@ -8550,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="AK65" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -8562,15 +9138,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" ht="35.6" spans="1:40">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1">
         <v>1960</v>
@@ -8586,7 +9162,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" si="2"/>
-        <v>0.45867346938775511</v>
+        <v>0.458673469387755</v>
       </c>
       <c r="I66" s="1">
         <v>0.8</v>
@@ -8598,102 +9174,102 @@
         <v>0.7</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1.5650000000000001E-4</v>
-      </c>
-      <c r="O66" s="2">
-        <v>3.0700000000000001E-5</v>
-      </c>
-      <c r="P66" s="2">
+        <v>43</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0.0001565</v>
+      </c>
+      <c r="O66" s="3">
+        <v>3.07e-5</v>
+      </c>
+      <c r="P66" s="3">
         <v>7.1</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q66" s="3">
         <v>8</v>
       </c>
-      <c r="R66" s="2">
+      <c r="R66" s="3">
         <v>12.6</v>
       </c>
-      <c r="S66" s="2">
+      <c r="S66" s="3">
         <v>10.8</v>
       </c>
-      <c r="T66" s="2">
-        <v>0</v>
-      </c>
-      <c r="U66" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="V66" s="2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>8.8</v>
+      </c>
+      <c r="V66" s="3">
         <v>6.5</v>
       </c>
-      <c r="W66" s="2">
+      <c r="W66" s="3">
         <v>11.6</v>
       </c>
-      <c r="X66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
         <v>4.3</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AA66" s="3">
         <v>10.9</v>
       </c>
-      <c r="AB66" s="2">
+      <c r="AB66" s="3">
         <v>5.9</v>
       </c>
-      <c r="AC66" s="2">
+      <c r="AC66" s="3">
         <v>2</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66" s="3">
         <v>5.9</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE66" s="3">
         <v>3.1</v>
       </c>
-      <c r="AF66" s="2">
+      <c r="AF66" s="3">
         <v>3.3</v>
       </c>
-      <c r="AG66" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="2">
+      <c r="AG66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="3">
         <v>0.8</v>
       </c>
-      <c r="AI66" s="2">
+      <c r="AI66" s="3">
         <v>1.4</v>
       </c>
-      <c r="AJ66" s="2">
+      <c r="AJ66" s="3">
         <v>1.6</v>
       </c>
-      <c r="AK66" s="2">
+      <c r="AK66" s="3">
         <v>1.4</v>
       </c>
-      <c r="AL66" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="2">
+      <c r="AL66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="3">
         <v>1.8</v>
       </c>
       <c r="AN66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" ht="35.6" spans="1:40">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1">
         <v>1960</v>
@@ -8709,7 +9285,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" si="2"/>
-        <v>5.5612244897959184E-2</v>
+        <v>0.0556122448979592</v>
       </c>
       <c r="I67" s="1">
         <v>1.2</v>
@@ -8721,12 +9297,12 @@
         <v>0.7</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N67" s="3">
+        <v>43</v>
+      </c>
+      <c r="N67" s="2">
         <v>15113</v>
       </c>
       <c r="O67" s="1">
@@ -8808,15 +9384,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" ht="35.6" spans="1:40">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1">
         <v>1960</v>
@@ -8828,11 +9404,11 @@
         <v>70</v>
       </c>
       <c r="G68" s="1">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="2"/>
-        <v>6.5918367346938775E-2</v>
+        <v>0.0659183673469388</v>
       </c>
       <c r="I68" s="1">
         <v>1.2</v>
@@ -8844,12 +9420,12 @@
         <v>0.7</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N68" s="3">
+        <v>43</v>
+      </c>
+      <c r="N68" s="2">
         <v>5225</v>
       </c>
       <c r="O68" s="1">
@@ -8931,15 +9507,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" ht="35.6" spans="1:40">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1">
         <v>1960</v>
@@ -8951,11 +9527,11 @@
         <v>80</v>
       </c>
       <c r="G69" s="1">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" si="2"/>
-        <v>7.6122448979591834E-2</v>
+        <v>0.0761224489795918</v>
       </c>
       <c r="I69" s="1">
         <v>1.2</v>
@@ -8967,12 +9543,12 @@
         <v>0.7</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N69" s="3">
+        <v>43</v>
+      </c>
+      <c r="N69" s="2">
         <v>2179</v>
       </c>
       <c r="O69" s="1">
@@ -9054,15 +9630,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" ht="35.6" spans="1:40">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D70" s="1">
         <v>1960</v>
@@ -9078,7 +9654,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" si="2"/>
-        <v>8.6326530612244892E-2</v>
+        <v>0.0863265306122449</v>
       </c>
       <c r="I70" s="1">
         <v>1.2</v>
@@ -9090,12 +9666,12 @@
         <v>0.7</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N70" s="3">
+        <v>43</v>
+      </c>
+      <c r="N70" s="2">
         <v>956.5</v>
       </c>
       <c r="O70" s="1">
@@ -9165,7 +9741,7 @@
         <v>1.8</v>
       </c>
       <c r="AK70" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AL70" s="1">
         <v>2.7</v>
@@ -9177,15 +9753,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" ht="35.6" spans="1:40">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D71" s="1">
         <v>1960</v>
@@ -9201,7 +9777,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" si="2"/>
-        <v>9.6632653061224497E-2</v>
+        <v>0.0966326530612245</v>
       </c>
       <c r="I71" s="1">
         <v>1.2</v>
@@ -9213,12 +9789,12 @@
         <v>0.7</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N71" s="3">
+        <v>43</v>
+      </c>
+      <c r="N71" s="2">
         <v>460.1</v>
       </c>
       <c r="O71" s="1">
@@ -9285,7 +9861,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ71" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK71" s="1">
         <v>2</v>
@@ -9300,15 +9876,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" ht="35.6" spans="1:40">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D72" s="1">
         <v>1960</v>
@@ -9324,7 +9900,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" si="2"/>
-        <v>0.10683673469387756</v>
+        <v>0.106836734693878</v>
       </c>
       <c r="I72" s="1">
         <v>1.2</v>
@@ -9336,12 +9912,12 @@
         <v>0.7</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N72" s="3">
+        <v>43</v>
+      </c>
+      <c r="N72" s="2">
         <v>233.1</v>
       </c>
       <c r="O72" s="1">
@@ -9372,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -9387,7 +9963,7 @@
         <v>0.7</v>
       </c>
       <c r="AC72" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AD72" s="1">
         <v>1.2</v>
@@ -9423,15 +9999,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" ht="35.6" spans="1:40">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D73" s="1">
         <v>1960</v>
@@ -9447,7 +10023,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" si="2"/>
-        <v>0.11928571428571429</v>
+        <v>0.119285714285714</v>
       </c>
       <c r="I73" s="1">
         <v>1.2</v>
@@ -9459,12 +10035,12 @@
         <v>0.7</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N73" s="3">
+        <v>43</v>
+      </c>
+      <c r="N73" s="2">
         <v>109.9</v>
       </c>
       <c r="O73" s="1">
@@ -9495,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
@@ -9510,7 +10086,7 @@
         <v>0.7</v>
       </c>
       <c r="AC73" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AD73" s="1">
         <v>1.3</v>
@@ -9546,15 +10122,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" ht="35.6" spans="1:40">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D74" s="1">
         <v>1960</v>
@@ -9570,7 +10146,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" si="2"/>
-        <v>0.13459183673469388</v>
+        <v>0.134591836734694</v>
       </c>
       <c r="I74" s="1">
         <v>1.2</v>
@@ -9582,12 +10158,12 @@
         <v>0.7</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N74" s="3">
+        <v>43</v>
+      </c>
+      <c r="N74" s="2">
         <v>45.48</v>
       </c>
       <c r="O74" s="1">
@@ -9600,7 +10176,7 @@
         <v>3.4</v>
       </c>
       <c r="R74" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S74" s="1">
         <v>1.8</v>
@@ -9618,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -9657,7 +10233,7 @@
         <v>2.5</v>
       </c>
       <c r="AK74" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AL74" s="1">
         <v>2.1</v>
@@ -9669,15 +10245,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" ht="35.6" spans="1:40">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D75" s="1">
         <v>1960</v>
@@ -9705,16 +10281,16 @@
         <v>0.7</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N75" s="3">
-        <v>19.829999999999998</v>
+        <v>43</v>
+      </c>
+      <c r="N75" s="2">
+        <v>19.83</v>
       </c>
       <c r="O75" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="P75" s="1">
         <v>2</v>
@@ -9723,10 +10299,10 @@
         <v>3.5</v>
       </c>
       <c r="R75" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S75" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="T75" s="1">
         <v>0</v>
@@ -9750,7 +10326,7 @@
         <v>3.1</v>
       </c>
       <c r="AA75" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB75" s="1">
         <v>0.9</v>
@@ -9792,15 +10368,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" ht="35.6" spans="1:40">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D76" s="1">
         <v>1960</v>
@@ -9816,7 +10392,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" si="2"/>
-        <v>0.1653061224489796</v>
+        <v>0.16530612244898</v>
       </c>
       <c r="I76" s="1">
         <v>1.2</v>
@@ -9828,19 +10404,19 @@
         <v>0.7</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N76" s="3">
-        <v>9.1359999999999992</v>
+        <v>43</v>
+      </c>
+      <c r="N76" s="2">
+        <v>9.136</v>
       </c>
       <c r="O76" s="1">
         <v>0.1</v>
       </c>
       <c r="P76" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Q76" s="1">
         <v>3.7</v>
@@ -9915,15 +10491,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" ht="35.6" spans="1:40">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D77" s="1">
         <v>1960</v>
@@ -9939,7 +10515,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" si="2"/>
-        <v>0.18285714285714286</v>
+        <v>0.182857142857143</v>
       </c>
       <c r="I77" s="1">
         <v>1.2</v>
@@ -9951,16 +10527,16 @@
         <v>0.7</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N77" s="3">
+        <v>43</v>
+      </c>
+      <c r="N77" s="2">
         <v>3.734</v>
       </c>
       <c r="O77" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="P77" s="1">
         <v>2.4</v>
@@ -9978,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="V77" s="1">
         <v>6.5</v>
@@ -10023,7 +10599,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ77" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AK77" s="1">
         <v>0.4</v>
@@ -10038,15 +10614,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" ht="35.6" spans="1:40">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D78" s="1">
         <v>1960</v>
@@ -10062,7 +10638,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" si="2"/>
-        <v>0.20530612244897958</v>
+        <v>0.20530612244898</v>
       </c>
       <c r="I78" s="1">
         <v>1.2</v>
@@ -10074,12 +10650,12 @@
         <v>0.7</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N78" s="3">
+        <v>43</v>
+      </c>
+      <c r="N78" s="2">
         <v>1.23</v>
       </c>
       <c r="O78" s="1">
@@ -10143,7 +10719,7 @@
         <v>0.1</v>
       </c>
       <c r="AI78" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AJ78" s="1">
         <v>2</v>
@@ -10161,15 +10737,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" ht="35.6" spans="1:40">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D79" s="1">
         <v>1960</v>
@@ -10185,7 +10761,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" si="2"/>
-        <v>0.23081632653061224</v>
+        <v>0.230816326530612</v>
       </c>
       <c r="I79" s="1">
         <v>1.2</v>
@@ -10197,16 +10773,16 @@
         <v>0.7</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.35320000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0.3532</v>
       </c>
       <c r="O79" s="1">
-        <v>4.8999999999999998E-3</v>
+        <v>0.0049</v>
       </c>
       <c r="P79" s="1">
         <v>2.9</v>
@@ -10218,7 +10794,7 @@
         <v>6.7</v>
       </c>
       <c r="S79" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="T79" s="1">
         <v>0</v>
@@ -10245,13 +10821,13 @@
         <v>2.6</v>
       </c>
       <c r="AB79" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC79" s="1">
         <v>3.5</v>
       </c>
       <c r="AD79" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AE79" s="1">
         <v>1.8</v>
@@ -10266,7 +10842,7 @@
         <v>0.2</v>
       </c>
       <c r="AI79" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AJ79" s="1">
         <v>1.6</v>
@@ -10284,15 +10860,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" ht="35.6" spans="1:40">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D80" s="1">
         <v>1960</v>
@@ -10308,7 +10884,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" si="2"/>
-        <v>0.25632653061224486</v>
+        <v>0.256326530612245</v>
       </c>
       <c r="I80" s="1">
         <v>1.2</v>
@@ -10320,16 +10896,16 @@
         <v>0.7</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.10829999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0.1083</v>
       </c>
       <c r="O80" s="1">
-        <v>2.3E-3</v>
+        <v>0.0023</v>
       </c>
       <c r="P80" s="1">
         <v>3.6</v>
@@ -10407,15 +10983,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" ht="35.6" spans="1:40">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D81" s="1">
         <v>1960</v>
@@ -10431,7 +11007,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" si="2"/>
-        <v>0.28183673469387754</v>
+        <v>0.281836734693878</v>
       </c>
       <c r="I81" s="1">
         <v>1.2</v>
@@ -10443,16 +11019,16 @@
         <v>0.7</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2.9100000000000001E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.0291</v>
       </c>
       <c r="O81" s="1">
-        <v>1.08E-3</v>
+        <v>0.00108</v>
       </c>
       <c r="P81" s="1">
         <v>4.7</v>
@@ -10488,7 +11064,7 @@
         <v>4.8</v>
       </c>
       <c r="AA81" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AB81" s="1">
         <v>1.7</v>
@@ -10530,15 +11106,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" ht="35.6" spans="1:40">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D82" s="1">
         <v>1960</v>
@@ -10554,7 +11130,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" si="2"/>
-        <v>0.31102040816326532</v>
+        <v>0.311020408163265</v>
       </c>
       <c r="I82" s="1">
         <v>1.2</v>
@@ -10566,16 +11142,16 @@
         <v>0.7</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N82" s="3">
-        <v>7.0819999999999998E-3</v>
+        <v>43</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0.007082</v>
       </c>
       <c r="O82" s="1">
-        <v>3.97E-4</v>
+        <v>0.000397</v>
       </c>
       <c r="P82" s="1">
         <v>6.3</v>
@@ -10602,7 +11178,7 @@
         <v>5.7</v>
       </c>
       <c r="X82" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="Y82" s="1">
         <v>0</v>
@@ -10614,16 +11190,16 @@
         <v>6.2</v>
       </c>
       <c r="AB82" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AC82" s="1">
         <v>3.3</v>
       </c>
       <c r="AD82" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AE82" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AF82" s="1">
         <v>2</v>
@@ -10653,15 +11229,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" ht="35.6" spans="1:40">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D83" s="1">
         <v>1960</v>
@@ -10677,7 +11253,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" si="2"/>
-        <v>0.35948979591836738</v>
+        <v>0.359489795918367</v>
       </c>
       <c r="I83" s="1">
         <v>1.2</v>
@@ -10689,102 +11265,102 @@
         <v>0.7</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3.7409999999999999E-4</v>
-      </c>
-      <c r="O83" s="2">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="P83" s="2">
+        <v>43</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0.0003741</v>
+      </c>
+      <c r="O83" s="3">
+        <v>4.3e-5</v>
+      </c>
+      <c r="P83" s="3">
         <v>9.9</v>
       </c>
-      <c r="Q83" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="R83" s="2">
+      <c r="Q83" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="R83" s="3">
         <v>13.1</v>
       </c>
-      <c r="S83" s="2">
+      <c r="S83" s="3">
         <v>11.7</v>
       </c>
-      <c r="T83" s="2">
-        <v>0</v>
-      </c>
-      <c r="U83" s="2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>9.5</v>
       </c>
-      <c r="V83" s="2">
+      <c r="V83" s="3">
         <v>6.5</v>
       </c>
-      <c r="W83" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="X83" s="2">
+      <c r="W83" s="3">
+        <v>8.3</v>
+      </c>
+      <c r="X83" s="3">
         <v>6</v>
       </c>
-      <c r="Y83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>6.7</v>
       </c>
-      <c r="AA83" s="2">
+      <c r="AA83" s="3">
         <v>9.6</v>
       </c>
-      <c r="AB83" s="2">
+      <c r="AB83" s="3">
         <v>3.9</v>
       </c>
-      <c r="AC83" s="2">
+      <c r="AC83" s="3">
         <v>3.3</v>
       </c>
-      <c r="AD83" s="2">
+      <c r="AD83" s="3">
         <v>6.4</v>
       </c>
-      <c r="AE83" s="2">
+      <c r="AE83" s="3">
         <v>7.5</v>
       </c>
-      <c r="AF83" s="2">
+      <c r="AF83" s="3">
         <v>2.5</v>
       </c>
-      <c r="AG83" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AH83" s="2">
+      <c r="AG83" s="3">
+        <v>2.3</v>
+      </c>
+      <c r="AH83" s="3">
         <v>1.4</v>
       </c>
-      <c r="AI83" s="2">
+      <c r="AI83" s="3">
         <v>5.6</v>
       </c>
-      <c r="AJ83" s="2">
+      <c r="AJ83" s="3">
         <v>0.6</v>
       </c>
-      <c r="AK83" s="2">
+      <c r="AK83" s="3">
         <v>1.3</v>
       </c>
-      <c r="AL83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM83" s="2">
+      <c r="AL83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="3">
         <v>0.8</v>
       </c>
       <c r="AN83" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" ht="35.6" spans="1:40">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D84" s="1">
         <v>1960</v>
@@ -10800,7 +11376,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" si="2"/>
-        <v>5.5612244897959184E-2</v>
+        <v>0.0556122448979592</v>
       </c>
       <c r="I84" s="1">
         <v>1.6</v>
@@ -10812,12 +11388,12 @@
         <v>0.7</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N84" s="3">
+        <v>43</v>
+      </c>
+      <c r="N84" s="2">
         <v>11591</v>
       </c>
       <c r="O84" s="1">
@@ -10851,10 +11427,10 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z84" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AA84" s="1">
         <v>2.5</v>
@@ -10866,7 +11442,7 @@
         <v>6.1</v>
       </c>
       <c r="AD84" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE84" s="1">
         <v>0</v>
@@ -10899,15 +11475,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" ht="35.6" spans="1:40">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D85" s="1">
         <v>1960</v>
@@ -10923,7 +11499,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" si="2"/>
-        <v>6.5816326530612243E-2</v>
+        <v>0.0658163265306122</v>
       </c>
       <c r="I85" s="1">
         <v>1.6</v>
@@ -10935,12 +11511,12 @@
         <v>0.7</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N85" s="3">
+        <v>43</v>
+      </c>
+      <c r="N85" s="2">
         <v>4020</v>
       </c>
       <c r="O85" s="1">
@@ -10977,7 +11553,7 @@
         <v>2.5</v>
       </c>
       <c r="Z85" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA85" s="1">
         <v>1.8</v>
@@ -11022,15 +11598,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" ht="35.6" spans="1:40">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D86" s="1">
         <v>1960</v>
@@ -11042,11 +11618,11 @@
         <v>80</v>
       </c>
       <c r="G86" s="1">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="H86" s="1">
         <f t="shared" si="2"/>
-        <v>7.6122448979591834E-2</v>
+        <v>0.0761224489795918</v>
       </c>
       <c r="I86" s="1">
         <v>1.6</v>
@@ -11058,12 +11634,12 @@
         <v>0.7</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N86" s="3">
+        <v>43</v>
+      </c>
+      <c r="N86" s="2">
         <v>1555</v>
       </c>
       <c r="O86" s="1">
@@ -11100,7 +11676,7 @@
         <v>2.6</v>
       </c>
       <c r="Z86" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AA86" s="1">
         <v>1.3</v>
@@ -11145,15 +11721,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" ht="35.6" spans="1:40">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D87" s="1">
         <v>1960</v>
@@ -11169,7 +11745,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" si="2"/>
-        <v>8.6326530612244892E-2</v>
+        <v>0.0863265306122449</v>
       </c>
       <c r="I87" s="1">
         <v>1.6</v>
@@ -11181,12 +11757,12 @@
         <v>0.7</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N87" s="3">
+        <v>43</v>
+      </c>
+      <c r="N87" s="2">
         <v>664.2</v>
       </c>
       <c r="O87" s="1">
@@ -11268,15 +11844,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" ht="35.6" spans="1:40">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D88" s="1">
         <v>1960</v>
@@ -11292,7 +11868,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" si="2"/>
-        <v>9.6632653061224497E-2</v>
+        <v>0.0966326530612245</v>
       </c>
       <c r="I88" s="1">
         <v>1.6</v>
@@ -11304,12 +11880,12 @@
         <v>0.7</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N88" s="3">
+        <v>43</v>
+      </c>
+      <c r="N88" s="2">
         <v>293.3</v>
       </c>
       <c r="O88" s="1">
@@ -11322,7 +11898,7 @@
         <v>3.4</v>
       </c>
       <c r="R88" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S88" s="1">
         <v>1.9</v>
@@ -11367,7 +11943,7 @@
         <v>0.1</v>
       </c>
       <c r="AG88" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -11379,7 +11955,7 @@
         <v>2.4</v>
       </c>
       <c r="AK88" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AL88" s="1">
         <v>1</v>
@@ -11391,15 +11967,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" ht="35.6" spans="1:40">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D89" s="1">
         <v>1960</v>
@@ -11415,7 +11991,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" si="2"/>
-        <v>0.10683673469387756</v>
+        <v>0.106836734693878</v>
       </c>
       <c r="I89" s="1">
         <v>1.6</v>
@@ -11427,34 +12003,34 @@
         <v>0.7</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N89" s="3">
+        <v>43</v>
+      </c>
+      <c r="N89" s="2">
         <v>135</v>
       </c>
       <c r="O89" s="1">
         <v>0.9</v>
       </c>
       <c r="P89" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Q89" s="1">
         <v>3.6</v>
       </c>
       <c r="R89" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S89" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T89" s="1">
         <v>0</v>
       </c>
       <c r="U89" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="V89" s="1">
         <v>6.5</v>
@@ -11514,15 +12090,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" ht="35.6" spans="1:40">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D90" s="1">
         <v>1960</v>
@@ -11538,7 +12114,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" si="2"/>
-        <v>0.11918367346938775</v>
+        <v>0.119183673469388</v>
       </c>
       <c r="I90" s="1">
         <v>1.6</v>
@@ -11550,12 +12126,12 @@
         <v>0.7</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N90" s="3">
+        <v>43</v>
+      </c>
+      <c r="N90" s="2">
         <v>56.4</v>
       </c>
       <c r="O90" s="1">
@@ -11568,7 +12144,7 @@
         <v>3.8</v>
       </c>
       <c r="R90" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="S90" s="1">
         <v>2.7</v>
@@ -11637,15 +12213,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" ht="35.6" spans="1:40">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D91" s="1">
         <v>1960</v>
@@ -11657,11 +12233,11 @@
         <v>140</v>
       </c>
       <c r="G91" s="1">
-        <v>131.80000000000001</v>
+        <v>131.8</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" si="2"/>
-        <v>0.13448979591836735</v>
+        <v>0.134489795918367</v>
       </c>
       <c r="I91" s="1">
         <v>1.6</v>
@@ -11673,22 +12249,22 @@
         <v>0.7</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N91" s="3">
+        <v>43</v>
+      </c>
+      <c r="N91" s="2">
         <v>20.13</v>
       </c>
       <c r="O91" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="P91" s="1">
         <v>2.7</v>
       </c>
       <c r="Q91" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="R91" s="1">
         <v>5.5</v>
@@ -11727,7 +12303,7 @@
         <v>5.4</v>
       </c>
       <c r="AD91" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE91" s="1">
         <v>0</v>
@@ -11760,15 +12336,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" ht="35.6" spans="1:40">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D92" s="1">
         <v>1960</v>
@@ -11784,7 +12360,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" si="2"/>
-        <v>0.1519387755102041</v>
+        <v>0.151938775510204</v>
       </c>
       <c r="I92" s="1">
         <v>1.6</v>
@@ -11796,16 +12372,16 @@
         <v>0.7</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N92" s="3">
-        <v>6.2789999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="N92" s="2">
+        <v>6.279</v>
       </c>
       <c r="O92" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>0.069</v>
       </c>
       <c r="P92" s="1">
         <v>2.8</v>
@@ -11817,7 +12393,7 @@
         <v>6.2</v>
       </c>
       <c r="S92" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="T92" s="1">
         <v>0</v>
@@ -11838,7 +12414,7 @@
         <v>3.5</v>
       </c>
       <c r="Z92" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AA92" s="1">
         <v>1.7</v>
@@ -11871,7 +12447,7 @@
         <v>3.1</v>
       </c>
       <c r="AK92" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AL92" s="1">
         <v>0</v>
@@ -11883,15 +12459,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" ht="35.6" spans="1:40">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D93" s="1">
         <v>1960</v>
@@ -11907,7 +12483,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" si="2"/>
-        <v>0.17030612244897961</v>
+        <v>0.17030612244898</v>
       </c>
       <c r="I93" s="1">
         <v>1.6</v>
@@ -11919,22 +12495,22 @@
         <v>0.7</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N93" s="3">
+        <v>43</v>
+      </c>
+      <c r="N93" s="2">
         <v>1.91</v>
       </c>
       <c r="O93" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="P93" s="1">
         <v>3.1</v>
       </c>
       <c r="Q93" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="R93" s="1">
         <v>7.1</v>
@@ -12006,15 +12582,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" ht="35.6" spans="1:40">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1">
         <v>1960</v>
@@ -12030,7 +12606,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:H111" si="3">2*G94/D94</f>
-        <v>0.18561224489795919</v>
+        <v>0.185612244897959</v>
       </c>
       <c r="I94" s="1">
         <v>1.6</v>
@@ -12042,16 +12618,16 @@
         <v>0.7</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0.68049999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0.6805</v>
       </c>
       <c r="O94" s="1">
-        <v>9.4999999999999998E-3</v>
+        <v>0.0095</v>
       </c>
       <c r="P94" s="1">
         <v>3.7</v>
@@ -12105,7 +12681,7 @@
         <v>0.1</v>
       </c>
       <c r="AG94" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AH94" s="1">
         <v>0.9</v>
@@ -12129,15 +12705,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" ht="35.6" spans="1:40">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D95" s="1">
         <v>1960</v>
@@ -12153,7 +12729,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" si="3"/>
-        <v>0.20295918367346941</v>
+        <v>0.202959183673469</v>
       </c>
       <c r="I95" s="1">
         <v>1.6</v>
@@ -12165,16 +12741,16 @@
         <v>0.7</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N95" s="3">
-        <v>0.21759999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0.2176</v>
       </c>
       <c r="O95" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>0.0039</v>
       </c>
       <c r="P95" s="1">
         <v>4.5</v>
@@ -12183,7 +12759,7 @@
         <v>6.2</v>
       </c>
       <c r="R95" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="S95" s="1">
         <v>7.3</v>
@@ -12231,7 +12807,7 @@
         <v>2.5</v>
       </c>
       <c r="AH95" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI95" s="1">
         <v>0.9</v>
@@ -12252,15 +12828,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" ht="35.6" spans="1:40">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D96" s="1">
         <v>1960</v>
@@ -12276,7 +12852,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" si="3"/>
-        <v>0.22520408163265304</v>
+        <v>0.225204081632653</v>
       </c>
       <c r="I96" s="1">
         <v>1.6</v>
@@ -12288,16 +12864,16 @@
         <v>0.7</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N96" s="3">
-        <v>4.4630000000000003E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0.04463</v>
       </c>
       <c r="O96" s="1">
-        <v>1.47E-3</v>
+        <v>0.00147</v>
       </c>
       <c r="P96" s="1">
         <v>5.8</v>
@@ -12309,7 +12885,7 @@
         <v>11</v>
       </c>
       <c r="S96" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="T96" s="1">
         <v>0</v>
@@ -12360,7 +12936,7 @@
         <v>0.9</v>
       </c>
       <c r="AJ96" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AK96" s="1">
         <v>0.8</v>
@@ -12375,15 +12951,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" ht="35.6" spans="1:40">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D97" s="1">
         <v>1960</v>
@@ -12399,7 +12975,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" si="3"/>
-        <v>0.25051020408163266</v>
+        <v>0.250510204081633</v>
       </c>
       <c r="I97" s="1">
         <v>1.6</v>
@@ -12411,19 +12987,19 @@
         <v>0.7</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N97" s="3">
-        <v>6.5440000000000003E-3</v>
+        <v>43</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0.006544</v>
       </c>
       <c r="O97" s="1">
-        <v>4.9700000000000005E-4</v>
+        <v>0.000497</v>
       </c>
       <c r="P97" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="Q97" s="1">
         <v>8.6</v>
@@ -12438,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="1">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="V97" s="1">
         <v>6.5</v>
@@ -12477,7 +13053,7 @@
         <v>3.4</v>
       </c>
       <c r="AH97" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI97" s="1">
         <v>0.9</v>
@@ -12498,15 +13074,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" ht="35.6" spans="1:40">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D98" s="1">
         <v>1960</v>
@@ -12518,11 +13094,11 @@
         <v>320</v>
       </c>
       <c r="G98" s="1">
-        <v>278.39999999999998</v>
+        <v>278.4</v>
       </c>
       <c r="H98" s="1">
         <f t="shared" si="3"/>
-        <v>0.28408163265306119</v>
+        <v>0.284081632653061</v>
       </c>
       <c r="I98" s="1">
         <v>1.6</v>
@@ -12534,102 +13110,102 @@
         <v>0.7</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N98" s="3">
-        <v>3.747E-4</v>
-      </c>
-      <c r="O98" s="2">
-        <v>6.1500000000000004E-5</v>
-      </c>
-      <c r="P98" s="2">
+        <v>43</v>
+      </c>
+      <c r="N98" s="2">
+        <v>0.0003747</v>
+      </c>
+      <c r="O98" s="3">
+        <v>6.15e-5</v>
+      </c>
+      <c r="P98" s="3">
         <v>12.9</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q98" s="3">
         <v>10.7</v>
       </c>
-      <c r="R98" s="2">
+      <c r="R98" s="3">
         <v>17.5</v>
       </c>
-      <c r="S98" s="2">
+      <c r="S98" s="3">
         <v>17</v>
       </c>
-      <c r="T98" s="2">
-        <v>0</v>
-      </c>
-      <c r="U98" s="2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
         <v>12.7</v>
       </c>
-      <c r="V98" s="2">
+      <c r="V98" s="3">
         <v>6.5</v>
       </c>
-      <c r="W98" s="2">
-        <v>0</v>
-      </c>
-      <c r="X98" s="2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
         <v>8.9</v>
       </c>
-      <c r="Y98" s="2">
+      <c r="Y98" s="3">
         <v>11</v>
       </c>
-      <c r="Z98" s="2">
+      <c r="Z98" s="3">
         <v>12</v>
       </c>
-      <c r="AA98" s="2">
+      <c r="AA98" s="3">
         <v>21.8</v>
       </c>
-      <c r="AB98" s="2">
+      <c r="AB98" s="3">
         <v>0.2</v>
       </c>
-      <c r="AC98" s="2">
+      <c r="AC98" s="3">
         <v>6.1</v>
       </c>
-      <c r="AD98" s="2">
+      <c r="AD98" s="3">
         <v>5.3</v>
       </c>
-      <c r="AE98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
         <v>0.1</v>
       </c>
-      <c r="AG98" s="2">
+      <c r="AG98" s="3">
         <v>4.2</v>
       </c>
-      <c r="AH98" s="2">
+      <c r="AH98" s="3">
         <v>3.9</v>
       </c>
-      <c r="AI98" s="2">
+      <c r="AI98" s="3">
         <v>0.9</v>
       </c>
-      <c r="AJ98" s="2">
+      <c r="AJ98" s="3">
         <v>1</v>
       </c>
-      <c r="AK98" s="2">
+      <c r="AK98" s="3">
         <v>1.5</v>
       </c>
-      <c r="AL98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM98" s="2">
+      <c r="AL98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM98" s="3">
         <v>0.1</v>
       </c>
       <c r="AN98" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" ht="35.6" spans="1:40">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D99" s="1">
         <v>1960</v>
@@ -12645,7 +13221,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" si="3"/>
-        <v>5.5612244897959184E-2</v>
+        <v>0.0556122448979592</v>
       </c>
       <c r="I99" s="1">
         <v>2</v>
@@ -12657,12 +13233,12 @@
         <v>0.7</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N99" s="3">
+        <v>43</v>
+      </c>
+      <c r="N99" s="2">
         <v>7154</v>
       </c>
       <c r="O99" s="1">
@@ -12702,7 +13278,7 @@
         <v>6.9</v>
       </c>
       <c r="AA99" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AB99" s="1">
         <v>0.3</v>
@@ -12732,7 +13308,7 @@
         <v>0.8</v>
       </c>
       <c r="AK99" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AL99" s="1">
         <v>2.1</v>
@@ -12744,15 +13320,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" ht="35.6" spans="1:40">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D100" s="1">
         <v>1960</v>
@@ -12768,7 +13344,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" si="3"/>
-        <v>6.5816326530612243E-2</v>
+        <v>0.0658163265306122</v>
       </c>
       <c r="I100" s="1">
         <v>2</v>
@@ -12780,12 +13356,12 @@
         <v>0.7</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N100" s="3">
+        <v>43</v>
+      </c>
+      <c r="N100" s="2">
         <v>2263</v>
       </c>
       <c r="O100" s="1">
@@ -12867,15 +13443,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" ht="35.6" spans="1:40">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D101" s="1">
         <v>1960</v>
@@ -12891,7 +13467,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" si="3"/>
-        <v>7.6020408163265302E-2</v>
+        <v>0.0760204081632653</v>
       </c>
       <c r="I101" s="1">
         <v>2</v>
@@ -12903,12 +13479,12 @@
         <v>0.7</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N101" s="3">
+        <v>43</v>
+      </c>
+      <c r="N101" s="2">
         <v>734.7</v>
       </c>
       <c r="O101" s="1">
@@ -12957,7 +13533,7 @@
         <v>6.9</v>
       </c>
       <c r="AD101" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE101" s="1">
         <v>0</v>
@@ -12990,15 +13566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" ht="35.6" spans="1:40">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D102" s="1">
         <v>1960</v>
@@ -13014,7 +13590,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" si="3"/>
-        <v>8.6326530612244892E-2</v>
+        <v>0.0863265306122449</v>
       </c>
       <c r="I102" s="1">
         <v>2</v>
@@ -13026,16 +13602,16 @@
         <v>0.7</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N102" s="3">
+        <v>43</v>
+      </c>
+      <c r="N102" s="2">
         <v>268.5</v>
       </c>
       <c r="O102" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="P102" s="1">
         <v>2</v>
@@ -13071,7 +13647,7 @@
         <v>6.4</v>
       </c>
       <c r="AA102" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB102" s="1">
         <v>0.2</v>
@@ -13113,15 +13689,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" ht="35.6" spans="1:40">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D103" s="1">
         <v>1960</v>
@@ -13137,7 +13713,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" si="3"/>
-        <v>9.6530612244897951E-2</v>
+        <v>0.096530612244898</v>
       </c>
       <c r="I103" s="1">
         <v>2</v>
@@ -13149,19 +13725,19 @@
         <v>0.7</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N103" s="3">
+        <v>43</v>
+      </c>
+      <c r="N103" s="2">
         <v>98.47</v>
       </c>
       <c r="O103" s="1">
         <v>0.79</v>
       </c>
       <c r="P103" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Q103" s="1">
         <v>4.2</v>
@@ -13176,7 +13752,7 @@
         <v>3.4</v>
       </c>
       <c r="U103" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="V103" s="1">
         <v>6.5</v>
@@ -13188,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z103" s="1">
         <v>6.6</v>
@@ -13236,15 +13812,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" ht="35.6" spans="1:40">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D104" s="1">
         <v>1960</v>
@@ -13260,7 +13836,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" si="3"/>
-        <v>0.10673469387755101</v>
+        <v>0.106734693877551</v>
       </c>
       <c r="I104" s="1">
         <v>2</v>
@@ -13272,12 +13848,12 @@
         <v>0.7</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N104" s="3">
+        <v>43</v>
+      </c>
+      <c r="N104" s="2">
         <v>38.31</v>
       </c>
       <c r="O104" s="1">
@@ -13287,7 +13863,7 @@
         <v>2.4</v>
       </c>
       <c r="Q104" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R104" s="1">
         <v>6.2</v>
@@ -13359,15 +13935,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" ht="35.6" spans="1:40">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D105" s="1">
         <v>1960</v>
@@ -13383,7 +13959,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" si="3"/>
-        <v>0.11693877551020408</v>
+        <v>0.116938775510204</v>
       </c>
       <c r="I105" s="1">
         <v>2</v>
@@ -13395,12 +13971,12 @@
         <v>0.7</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N105" s="3">
+        <v>43</v>
+      </c>
+      <c r="N105" s="2">
         <v>14.53</v>
       </c>
       <c r="O105" s="1">
@@ -13416,7 +13992,7 @@
         <v>6.9</v>
       </c>
       <c r="S105" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="T105" s="1">
         <v>3</v>
@@ -13470,7 +14046,7 @@
         <v>3.8</v>
       </c>
       <c r="AK105" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AL105" s="1">
         <v>1</v>
@@ -13482,15 +14058,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" ht="35.6" spans="1:40">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D106" s="1">
         <v>1960</v>
@@ -13506,7 +14082,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" si="3"/>
-        <v>0.12714285714285714</v>
+        <v>0.127142857142857</v>
       </c>
       <c r="I106" s="1">
         <v>2</v>
@@ -13518,13 +14094,13 @@
         <v>0.7</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N106" s="3">
-        <v>5.6429999999999998</v>
+        <v>43</v>
+      </c>
+      <c r="N106" s="2">
+        <v>5.643</v>
       </c>
       <c r="O106" s="1">
         <v>0.09</v>
@@ -13605,15 +14181,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" ht="35.6" spans="1:40">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D107" s="1">
         <v>1960</v>
@@ -13629,7 +14205,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" si="3"/>
-        <v>0.13938775510204082</v>
+        <v>0.139387755102041</v>
       </c>
       <c r="I107" s="1">
         <v>2</v>
@@ -13641,16 +14217,16 @@
         <v>0.7</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N107" s="3">
-        <v>1.7869999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="N107" s="2">
+        <v>1.787</v>
       </c>
       <c r="O107" s="1">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="P107" s="1">
         <v>3.7</v>
@@ -13659,7 +14235,7 @@
         <v>6</v>
       </c>
       <c r="R107" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="S107" s="1">
         <v>7.1</v>
@@ -13695,7 +14271,7 @@
         <v>8</v>
       </c>
       <c r="AD107" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AE107" s="1">
         <v>0</v>
@@ -13728,15 +14304,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" ht="35.6" spans="1:40">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D108" s="1">
         <v>1960</v>
@@ -13752,7 +14328,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" si="3"/>
-        <v>0.1546938775510204</v>
+        <v>0.15469387755102</v>
       </c>
       <c r="I108" s="1">
         <v>2</v>
@@ -13764,16 +14340,16 @@
         <v>0.7</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N108" s="3">
-        <v>0.37519999999999998</v>
+        <v>43</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0.3752</v>
       </c>
       <c r="O108" s="1">
-        <v>1.7299999999999999E-2</v>
+        <v>0.0173</v>
       </c>
       <c r="P108" s="1">
         <v>4.8</v>
@@ -13791,7 +14367,7 @@
         <v>4.2</v>
       </c>
       <c r="U108" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="V108" s="1">
         <v>6.5</v>
@@ -13806,7 +14382,7 @@
         <v>4.2</v>
       </c>
       <c r="Z108" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AA108" s="1">
         <v>1.4</v>
@@ -13815,7 +14391,7 @@
         <v>0.2</v>
       </c>
       <c r="AC108" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AD108" s="1">
         <v>2.9</v>
@@ -13830,13 +14406,13 @@
         <v>2.7</v>
       </c>
       <c r="AH108" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI108" s="1">
         <v>0.5</v>
       </c>
       <c r="AJ108" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AK108" s="1">
         <v>1.5</v>
@@ -13851,15 +14427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" ht="35.6" spans="1:40">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D109" s="1">
         <v>1960</v>
@@ -13875,7 +14451,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" si="3"/>
-        <v>0.16989795918367348</v>
+        <v>0.169897959183673</v>
       </c>
       <c r="I109" s="1">
         <v>2</v>
@@ -13887,16 +14463,16 @@
         <v>0.7</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N109" s="3">
-        <v>7.9229999999999995E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0.07923</v>
       </c>
       <c r="O109" s="1">
-        <v>2.7699999999999999E-3</v>
+        <v>0.00277</v>
       </c>
       <c r="P109" s="1">
         <v>6.4</v>
@@ -13959,7 +14535,7 @@
         <v>0.7</v>
       </c>
       <c r="AJ109" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AK109" s="1">
         <v>1.3</v>
@@ -13974,15 +14550,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" ht="35.6" spans="1:40">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D110" s="1">
         <v>1960</v>
@@ -13998,7 +14574,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" si="3"/>
-        <v>0.18846938775510202</v>
+        <v>0.188469387755102</v>
       </c>
       <c r="I110" s="1">
         <v>2</v>
@@ -14010,19 +14586,19 @@
         <v>0.7</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N110" s="3">
-        <v>1.048E-2</v>
+        <v>43</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0.01048</v>
       </c>
       <c r="O110" s="1">
-        <v>6.8000000000000005E-4</v>
+        <v>0.00068</v>
       </c>
       <c r="P110" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="Q110" s="1">
         <v>9.4</v>
@@ -14049,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="Z110" s="1">
         <v>13.4</v>
@@ -14061,7 +14637,7 @@
         <v>0.2</v>
       </c>
       <c r="AC110" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="AD110" s="1">
         <v>5</v>
@@ -14082,7 +14658,7 @@
         <v>0.7</v>
       </c>
       <c r="AJ110" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AK110" s="1">
         <v>1.3</v>
@@ -14097,15 +14673,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" ht="35.6" spans="1:40">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D111" s="1">
         <v>1960</v>
@@ -14121,7 +14697,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" si="3"/>
-        <v>0.21428571428571427</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I111" s="1">
         <v>2</v>
@@ -14133,94 +14709,94 @@
         <v>0.7</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N111" s="3">
-        <v>3.3139999999999998E-4</v>
-      </c>
-      <c r="O111" s="2">
-        <v>6.2600000000000004E-5</v>
-      </c>
-      <c r="P111" s="2">
+        <v>43</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0.0003314</v>
+      </c>
+      <c r="O111" s="3">
+        <v>6.26e-5</v>
+      </c>
+      <c r="P111" s="3">
         <v>16.7</v>
       </c>
-      <c r="Q111" s="2">
+      <c r="Q111" s="3">
         <v>12.4</v>
       </c>
-      <c r="R111" s="2">
+      <c r="R111" s="3">
         <v>20.6</v>
       </c>
-      <c r="S111" s="2">
+      <c r="S111" s="3">
         <v>21.4</v>
       </c>
-      <c r="T111" s="2">
+      <c r="T111" s="3">
         <v>15.1</v>
       </c>
-      <c r="U111" s="2">
+      <c r="U111" s="3">
         <v>15</v>
       </c>
-      <c r="V111" s="2">
+      <c r="V111" s="3">
         <v>6.5</v>
       </c>
-      <c r="W111" s="2">
-        <v>0</v>
-      </c>
-      <c r="X111" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="2">
+      <c r="W111" s="3">
+        <v>0</v>
+      </c>
+      <c r="X111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="3">
         <v>14.9</v>
       </c>
-      <c r="Z111" s="2">
+      <c r="Z111" s="3">
         <v>17.8</v>
       </c>
-      <c r="AA111" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AB111" s="2">
+      <c r="AA111" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="AB111" s="3">
         <v>0.2</v>
       </c>
-      <c r="AC111" s="2">
+      <c r="AC111" s="3">
         <v>10.3</v>
       </c>
-      <c r="AD111" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AE111" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF111" s="2">
+      <c r="AD111" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="AE111" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="3">
         <v>3.4</v>
       </c>
-      <c r="AG111" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AH111" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AI111" s="2">
+      <c r="AG111" s="3">
+        <v>4.9</v>
+      </c>
+      <c r="AH111" s="3">
+        <v>10.2</v>
+      </c>
+      <c r="AI111" s="3">
         <v>0.9</v>
       </c>
-      <c r="AJ111" s="2">
+      <c r="AJ111" s="3">
         <v>4.2</v>
       </c>
-      <c r="AK111" s="2">
+      <c r="AK111" s="3">
         <v>1.6</v>
       </c>
-      <c r="AL111" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM111" s="2">
+      <c r="AL111" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM111" s="3">
         <v>0.9</v>
       </c>
       <c r="AN111" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" ht="35.6" spans="2:16">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -14234,7 +14810,7 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
     </row>
-    <row r="113" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" ht="35.6" spans="2:16">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -14248,7 +14824,7 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
     </row>
-    <row r="114" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" ht="35.6" spans="2:16">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -14262,7 +14838,7 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
     </row>
-    <row r="115" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" ht="35.6" spans="2:16">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -14276,7 +14852,7 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
     </row>
-    <row r="116" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" ht="35.6" spans="2:16">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -14290,7 +14866,7 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
     </row>
-    <row r="117" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" ht="35.6" spans="2:16">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -14304,7 +14880,7 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
     </row>
-    <row r="118" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" ht="35.6" spans="2:16">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -14318,7 +14894,7 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
     </row>
-    <row r="119" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" ht="35.6" spans="2:16">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -14332,7 +14908,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" ht="35.6" spans="2:16">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -14346,7 +14922,7 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
     </row>
-    <row r="121" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" ht="35.6" spans="2:16">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -14360,7 +14936,7 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" ht="35.6" spans="2:16">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -14374,7 +14950,7 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
     </row>
-    <row r="123" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" ht="35.6" spans="2:16">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -14389,7 +14965,8 @@
       <c r="P123" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jets/expdata/10001.xlsx
+++ b/jets/expdata/10001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>idx</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>%-sys23_c</t>
+  </si>
+  <si>
+    <t>%-parton-to-hadron</t>
   </si>
   <si>
     <t>plot-factor</t>
@@ -772,15 +775,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,12 +1102,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AN123"/>
+  <dimension ref="A1:AO123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="AH1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="AN1" sqref="AN$1:AN$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
@@ -1140,11 +1140,12 @@
     <col min="36" max="36" width="13.5689655172414" customWidth="1"/>
     <col min="37" max="37" width="12.8534482758621" customWidth="1"/>
     <col min="38" max="39" width="13.2844827586207" customWidth="1"/>
-    <col min="40" max="40" width="13.1422413793103" customWidth="1"/>
-    <col min="41" max="1026" width="10.2844827586207" customWidth="1"/>
+    <col min="40" max="40" width="23.5862068965517" customWidth="1"/>
+    <col min="41" max="41" width="13.1422413793103" customWidth="1"/>
+    <col min="42" max="1027" width="10.2844827586207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.6" spans="1:40">
+    <row r="1" ht="35.6" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,16 +1266,19 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" ht="35.6" spans="1:40">
+    <row r="2" ht="35.6" spans="1:41">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>1960</v>
@@ -1302,10 +1306,10 @@
         <v>0.7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>23143</v>
@@ -1386,18 +1390,21 @@
         <v>0.1</v>
       </c>
       <c r="AN2" s="1">
+        <v>111.3</v>
+      </c>
+      <c r="AO2" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="35.6" spans="1:40">
+    <row r="3" ht="35.6" spans="1:41">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1">
         <v>1960</v>
@@ -1425,10 +1432,10 @@
         <v>0.7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
         <v>8818</v>
@@ -1509,18 +1516,21 @@
         <v>0.2</v>
       </c>
       <c r="AN3" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="AO3" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="35.6" spans="1:40">
+    <row r="4" ht="35.6" spans="1:41">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>1960</v>
@@ -1548,10 +1558,10 @@
         <v>0.7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>3772</v>
@@ -1632,18 +1642,21 @@
         <v>0.3</v>
       </c>
       <c r="AN4" s="1">
+        <v>108.5</v>
+      </c>
+      <c r="AO4" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="35.6" spans="1:40">
+    <row r="5" ht="35.6" spans="1:41">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>1960</v>
@@ -1671,10 +1684,10 @@
         <v>0.7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
         <v>1759</v>
@@ -1755,18 +1768,21 @@
         <v>0.3</v>
       </c>
       <c r="AN5" s="1">
+        <v>107.5</v>
+      </c>
+      <c r="AO5" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="35.6" spans="1:40">
+    <row r="6" ht="35.6" spans="1:41">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>1960</v>
@@ -1794,10 +1810,10 @@
         <v>0.7</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2">
         <v>893</v>
@@ -1878,18 +1894,21 @@
         <v>0.4</v>
       </c>
       <c r="AN6" s="1">
+        <v>106.6</v>
+      </c>
+      <c r="AO6" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="35.6" spans="1:40">
+    <row r="7" ht="35.6" spans="1:41">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>1960</v>
@@ -1917,10 +1936,10 @@
         <v>0.7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2">
         <v>482.8</v>
@@ -2001,18 +2020,21 @@
         <v>0.4</v>
       </c>
       <c r="AN7" s="1">
+        <v>105.9</v>
+      </c>
+      <c r="AO7" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="35.6" spans="1:40">
+    <row r="8" ht="35.6" spans="1:41">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>1960</v>
@@ -2040,10 +2062,10 @@
         <v>0.7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>274.4</v>
@@ -2124,18 +2146,21 @@
         <v>0.4</v>
       </c>
       <c r="AN8" s="1">
+        <v>105.3</v>
+      </c>
+      <c r="AO8" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="35.6" spans="1:40">
+    <row r="9" ht="35.6" spans="1:41">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>1960</v>
@@ -2163,10 +2188,10 @@
         <v>0.7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N9" s="2">
         <v>158.8</v>
@@ -2247,18 +2272,21 @@
         <v>0.4</v>
       </c>
       <c r="AN9" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="AO9" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="35.6" spans="1:40">
+    <row r="10" ht="35.6" spans="1:41">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>1960</v>
@@ -2286,10 +2314,10 @@
         <v>0.7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10" s="2">
         <v>86.44</v>
@@ -2370,18 +2398,21 @@
         <v>0.4</v>
       </c>
       <c r="AN10" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="AO10" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="35.6" spans="1:40">
+    <row r="11" ht="35.6" spans="1:41">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>1960</v>
@@ -2409,10 +2440,10 @@
         <v>0.7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2">
         <v>43.38</v>
@@ -2493,18 +2524,21 @@
         <v>0.4</v>
       </c>
       <c r="AN11" s="1">
+        <v>103.8</v>
+      </c>
+      <c r="AO11" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="35.6" spans="1:40">
+    <row r="12" ht="35.6" spans="1:41">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>1960</v>
@@ -2532,10 +2566,10 @@
         <v>0.7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N12" s="2">
         <v>21.31</v>
@@ -2616,18 +2650,21 @@
         <v>0.4</v>
       </c>
       <c r="AN12" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="AO12" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="35.6" spans="1:40">
+    <row r="13" ht="35.6" spans="1:41">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>1960</v>
@@ -2655,10 +2692,10 @@
         <v>0.7</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2">
         <v>9.81</v>
@@ -2739,18 +2776,21 @@
         <v>0.4</v>
       </c>
       <c r="AN13" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="AO13" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="35.6" spans="1:40">
+    <row r="14" ht="35.6" spans="1:41">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
         <v>1960</v>
@@ -2778,10 +2818,10 @@
         <v>0.7</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N14" s="2">
         <v>4.719</v>
@@ -2862,18 +2902,21 @@
         <v>0.3</v>
       </c>
       <c r="AN14" s="1">
+        <v>102.9</v>
+      </c>
+      <c r="AO14" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="35.6" spans="1:40">
+    <row r="15" ht="35.6" spans="1:41">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>1960</v>
@@ -2901,10 +2944,10 @@
         <v>0.7</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2">
         <v>2.417</v>
@@ -2985,18 +3028,21 @@
         <v>0.3</v>
       </c>
       <c r="AN15" s="1">
+        <v>102.7</v>
+      </c>
+      <c r="AO15" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="16" ht="35.6" spans="1:40">
+    <row r="16" ht="35.6" spans="1:41">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>1960</v>
@@ -3024,10 +3070,10 @@
         <v>0.7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N16" s="2">
         <v>1.177</v>
@@ -3108,18 +3154,21 @@
         <v>0.2</v>
       </c>
       <c r="AN16" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="AO16" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="35.6" spans="1:40">
+    <row r="17" ht="35.6" spans="1:41">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1">
         <v>1960</v>
@@ -3147,10 +3196,10 @@
         <v>0.7</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2">
         <v>0.5084</v>
@@ -3231,18 +3280,21 @@
         <v>0.1</v>
       </c>
       <c r="AN17" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="AO17" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="18" ht="35.6" spans="1:40">
+    <row r="18" ht="35.6" spans="1:41">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1">
         <v>1960</v>
@@ -3270,10 +3322,10 @@
         <v>0.7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2">
         <v>0.2097</v>
@@ -3354,18 +3406,21 @@
         <v>0.1</v>
       </c>
       <c r="AN18" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="AO18" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="19" ht="35.6" spans="1:40">
+    <row r="19" ht="35.6" spans="1:41">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>1960</v>
@@ -3393,10 +3448,10 @@
         <v>0.7</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N19" s="2">
         <v>0.08189</v>
@@ -3477,18 +3532,21 @@
         <v>0.3</v>
       </c>
       <c r="AN19" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="AO19" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="35.6" spans="1:40">
+    <row r="20" ht="35.6" spans="1:41">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>1960</v>
@@ -3516,10 +3574,10 @@
         <v>0.7</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N20" s="2">
         <v>0.02909</v>
@@ -3600,18 +3658,21 @@
         <v>0.5</v>
       </c>
       <c r="AN20" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="AO20" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="35.6" spans="1:40">
+    <row r="21" ht="35.6" spans="1:41">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1">
         <v>1960</v>
@@ -3639,10 +3700,10 @@
         <v>0.7</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N21" s="2">
         <v>0.009915</v>
@@ -3723,18 +3784,21 @@
         <v>0.9</v>
       </c>
       <c r="AN21" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO21" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="35.6" spans="1:40">
+    <row r="22" ht="35.6" spans="1:41">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1">
         <v>1960</v>
@@ -3762,10 +3826,10 @@
         <v>0.7</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N22" s="2">
         <v>0.003032</v>
@@ -3846,18 +3910,21 @@
         <v>1.4</v>
       </c>
       <c r="AN22" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO22" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="23" ht="35.6" spans="1:40">
+    <row r="23" ht="35.6" spans="1:41">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1">
         <v>1960</v>
@@ -3885,10 +3952,10 @@
         <v>0.7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N23" s="2">
         <v>0.0005925</v>
@@ -3969,18 +4036,21 @@
         <v>2.1</v>
       </c>
       <c r="AN23" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO23" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="24" ht="35.6" spans="1:40">
+    <row r="24" ht="35.6" spans="1:41">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
         <v>1960</v>
@@ -4008,102 +4078,105 @@
         <v>0.7</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N24" s="2">
         <v>8.917e-5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="1">
         <v>3.638e-5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="1">
         <v>3.1</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="1">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="1">
         <v>12.5</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="1">
         <v>10.6</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
         <v>8</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="1">
         <v>6.5</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="1">
         <v>1.5</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
         <v>1</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="1">
         <v>2.4</v>
       </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="3">
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
         <v>5.5</v>
       </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="3">
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
         <v>0.9</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ24" s="1">
         <v>1.5</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK24" s="1">
         <v>1.2</v>
       </c>
-      <c r="AL24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="3">
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
         <v>3.3</v>
       </c>
       <c r="AN24" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO24" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="35.6" spans="1:40">
+    <row r="25" ht="35.6" spans="1:41">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>1960</v>
@@ -4131,10 +4204,10 @@
         <v>0.7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N25" s="2">
         <v>21566</v>
@@ -4215,18 +4288,21 @@
         <v>0.1</v>
       </c>
       <c r="AN25" s="1">
+        <v>111.9</v>
+      </c>
+      <c r="AO25" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="35.6" spans="1:40">
+    <row r="26" ht="35.6" spans="1:41">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1">
         <v>1960</v>
@@ -4254,10 +4330,10 @@
         <v>0.7</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N26" s="2">
         <v>8106</v>
@@ -4338,18 +4414,21 @@
         <v>0.2</v>
       </c>
       <c r="AN26" s="1">
+        <v>110.2</v>
+      </c>
+      <c r="AO26" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="35.6" spans="1:40">
+    <row r="27" ht="35.6" spans="1:41">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1">
         <v>1960</v>
@@ -4377,10 +4456,10 @@
         <v>0.7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N27" s="2">
         <v>3471</v>
@@ -4461,18 +4540,21 @@
         <v>0.3</v>
       </c>
       <c r="AN27" s="1">
+        <v>108.9</v>
+      </c>
+      <c r="AO27" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="35.6" spans="1:40">
+    <row r="28" ht="35.6" spans="1:41">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1">
         <v>1960</v>
@@ -4500,10 +4582,10 @@
         <v>0.7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N28" s="2">
         <v>1611</v>
@@ -4584,18 +4666,21 @@
         <v>0.3</v>
       </c>
       <c r="AN28" s="1">
+        <v>107.7</v>
+      </c>
+      <c r="AO28" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="35.6" spans="1:40">
+    <row r="29" ht="35.6" spans="1:41">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1">
         <v>1960</v>
@@ -4623,10 +4708,10 @@
         <v>0.7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N29" s="2">
         <v>799.8</v>
@@ -4707,18 +4792,21 @@
         <v>0.4</v>
       </c>
       <c r="AN29" s="1">
+        <v>106.8</v>
+      </c>
+      <c r="AO29" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="35.6" spans="1:40">
+    <row r="30" ht="35.6" spans="1:41">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1">
         <v>1960</v>
@@ -4746,10 +4834,10 @@
         <v>0.7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N30" s="2">
         <v>435.3</v>
@@ -4830,18 +4918,21 @@
         <v>0.4</v>
       </c>
       <c r="AN30" s="1">
+        <v>106</v>
+      </c>
+      <c r="AO30" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="35.6" spans="1:40">
+    <row r="31" ht="35.6" spans="1:41">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1">
         <v>1960</v>
@@ -4869,10 +4960,10 @@
         <v>0.7</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N31" s="2">
         <v>241.5</v>
@@ -4953,18 +5044,21 @@
         <v>0.4</v>
       </c>
       <c r="AN31" s="1">
+        <v>105.4</v>
+      </c>
+      <c r="AO31" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="35.6" spans="1:40">
+    <row r="32" ht="35.6" spans="1:41">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1">
         <v>1960</v>
@@ -4992,10 +5086,10 @@
         <v>0.7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N32" s="2">
         <v>140.9</v>
@@ -5076,18 +5170,21 @@
         <v>0.4</v>
       </c>
       <c r="AN32" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="AO32" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="35.6" spans="1:40">
+    <row r="33" ht="35.6" spans="1:41">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1">
         <v>1960</v>
@@ -5115,10 +5212,10 @@
         <v>0.7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N33" s="2">
         <v>76.38</v>
@@ -5199,18 +5296,21 @@
         <v>0.4</v>
       </c>
       <c r="AN33" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="AO33" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="35.6" spans="1:40">
+    <row r="34" ht="35.6" spans="1:41">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1">
         <v>1960</v>
@@ -5238,10 +5338,10 @@
         <v>0.7</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N34" s="2">
         <v>38.05</v>
@@ -5322,18 +5422,21 @@
         <v>0.4</v>
       </c>
       <c r="AN34" s="1">
+        <v>103.8</v>
+      </c>
+      <c r="AO34" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="35.6" spans="1:40">
+    <row r="35" ht="35.6" spans="1:41">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1">
         <v>1960</v>
@@ -5361,10 +5464,10 @@
         <v>0.7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N35" s="2">
         <v>18.11</v>
@@ -5445,18 +5548,21 @@
         <v>0.4</v>
       </c>
       <c r="AN35" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="AO35" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="35.6" spans="1:40">
+    <row r="36" ht="35.6" spans="1:41">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1">
         <v>1960</v>
@@ -5484,10 +5590,10 @@
         <v>0.7</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N36" s="2">
         <v>8.105</v>
@@ -5568,18 +5674,21 @@
         <v>0.4</v>
       </c>
       <c r="AN36" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="AO36" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="35.6" spans="1:40">
+    <row r="37" ht="35.6" spans="1:41">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1">
         <v>1960</v>
@@ -5607,10 +5716,10 @@
         <v>0.7</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N37" s="2">
         <v>3.779</v>
@@ -5691,18 +5800,21 @@
         <v>0.3</v>
       </c>
       <c r="AN37" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="AO37" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="38" ht="35.6" spans="1:40">
+    <row r="38" ht="35.6" spans="1:41">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1">
         <v>1960</v>
@@ -5730,10 +5842,10 @@
         <v>0.7</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N38" s="2">
         <v>1.853</v>
@@ -5814,18 +5926,21 @@
         <v>0.3</v>
       </c>
       <c r="AN38" s="1">
+        <v>102.7</v>
+      </c>
+      <c r="AO38" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="35.6" spans="1:40">
+    <row r="39" ht="35.6" spans="1:41">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1">
         <v>1960</v>
@@ -5853,10 +5968,10 @@
         <v>0.7</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N39" s="2">
         <v>0.8718</v>
@@ -5937,18 +6052,21 @@
         <v>0.2</v>
       </c>
       <c r="AN39" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="AO39" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="35.6" spans="1:40">
+    <row r="40" ht="35.6" spans="1:41">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" s="1">
         <v>1960</v>
@@ -5976,10 +6094,10 @@
         <v>0.7</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N40" s="2">
         <v>0.3532</v>
@@ -6060,18 +6178,21 @@
         <v>0.1</v>
       </c>
       <c r="AN40" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="AO40" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="35.6" spans="1:40">
+    <row r="41" ht="35.6" spans="1:41">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1">
         <v>1960</v>
@@ -6099,10 +6220,10 @@
         <v>0.7</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N41" s="2">
         <v>0.1381</v>
@@ -6183,18 +6304,21 @@
         <v>0.1</v>
       </c>
       <c r="AN41" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="AO41" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="42" ht="35.6" spans="1:40">
+    <row r="42" ht="35.6" spans="1:41">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1">
         <v>1960</v>
@@ -6222,10 +6346,10 @@
         <v>0.7</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N42" s="2">
         <v>0.0527</v>
@@ -6306,18 +6430,21 @@
         <v>0.3</v>
       </c>
       <c r="AN42" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="AO42" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="43" ht="35.6" spans="1:40">
+    <row r="43" ht="35.6" spans="1:41">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1">
         <v>1960</v>
@@ -6345,10 +6472,10 @@
         <v>0.7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N43" s="2">
         <v>0.01539</v>
@@ -6429,18 +6556,21 @@
         <v>0.7</v>
       </c>
       <c r="AN43" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO43" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="35.6" spans="1:40">
+    <row r="44" ht="35.6" spans="1:41">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1">
         <v>1960</v>
@@ -6468,10 +6598,10 @@
         <v>0.7</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N44" s="2">
         <v>0.003741</v>
@@ -6552,18 +6682,21 @@
         <v>1.1</v>
       </c>
       <c r="AN44" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO44" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="35.6" spans="1:40">
+    <row r="45" ht="35.6" spans="1:41">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1">
         <v>1960</v>
@@ -6591,10 +6724,10 @@
         <v>0.7</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N45" s="2">
         <v>0.0007379</v>
@@ -6675,18 +6808,21 @@
         <v>1.8</v>
       </c>
       <c r="AN45" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO45" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="46" ht="35.6" spans="1:40">
+    <row r="46" ht="35.6" spans="1:41">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1">
         <v>1960</v>
@@ -6714,102 +6850,105 @@
         <v>0.7</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N46" s="2">
         <v>6.021e-5</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="1">
         <v>2.457e-5</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="1">
         <v>3.7</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="1">
         <v>8.6</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="1">
         <v>13.4</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="1">
         <v>11.3</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
         <v>9</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="1">
         <v>6.5</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="1">
         <v>8</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
         <v>2.4</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="1">
         <v>2.6</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="1">
         <v>1.7</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="1">
         <v>3.1</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AE46" s="1">
         <v>3.4</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AF46" s="1">
         <v>6</v>
       </c>
-      <c r="AG46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="3">
+      <c r="AG46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="1">
         <v>0.3</v>
       </c>
-      <c r="AI46" s="3">
+      <c r="AI46" s="1">
         <v>0.9</v>
       </c>
-      <c r="AJ46" s="3">
+      <c r="AJ46" s="1">
         <v>1.8</v>
       </c>
-      <c r="AK46" s="3">
+      <c r="AK46" s="1">
         <v>1.3</v>
       </c>
-      <c r="AL46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="3">
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1">
         <v>3</v>
       </c>
       <c r="AN46" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO46" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="35.6" spans="1:40">
+    <row r="47" ht="35.6" spans="1:41">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" s="1">
         <v>1960</v>
@@ -6837,10 +6976,10 @@
         <v>0.7</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N47" s="2">
         <v>17563</v>
@@ -6921,18 +7060,21 @@
         <v>0.1</v>
       </c>
       <c r="AN47" s="1">
+        <v>113.5</v>
+      </c>
+      <c r="AO47" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="48" ht="35.6" spans="1:40">
+    <row r="48" ht="35.6" spans="1:41">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" s="1">
         <v>1960</v>
@@ -6960,10 +7102,10 @@
         <v>0.7</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N48" s="2">
         <v>6579</v>
@@ -7044,18 +7186,21 @@
         <v>0.2</v>
       </c>
       <c r="AN48" s="1">
+        <v>111.4</v>
+      </c>
+      <c r="AO48" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="49" ht="35.6" spans="1:40">
+    <row r="49" ht="35.6" spans="1:41">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D49" s="1">
         <v>1960</v>
@@ -7083,10 +7228,10 @@
         <v>0.7</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N49" s="2">
         <v>2786</v>
@@ -7167,18 +7312,21 @@
         <v>0.3</v>
       </c>
       <c r="AN49" s="1">
+        <v>109.7</v>
+      </c>
+      <c r="AO49" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="50" ht="35.6" spans="1:40">
+    <row r="50" ht="35.6" spans="1:41">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50" s="1">
         <v>1960</v>
@@ -7206,10 +7354,10 @@
         <v>0.7</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N50" s="2">
         <v>1283</v>
@@ -7290,18 +7438,21 @@
         <v>0.3</v>
       </c>
       <c r="AN50" s="1">
+        <v>108.3</v>
+      </c>
+      <c r="AO50" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="51" ht="35.6" spans="1:40">
+    <row r="51" ht="35.6" spans="1:41">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1">
         <v>1960</v>
@@ -7329,10 +7480,10 @@
         <v>0.7</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N51" s="2">
         <v>654</v>
@@ -7413,18 +7564,21 @@
         <v>0.4</v>
       </c>
       <c r="AN51" s="1">
+        <v>107.1</v>
+      </c>
+      <c r="AO51" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="52" ht="35.6" spans="1:40">
+    <row r="52" ht="35.6" spans="1:41">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D52" s="1">
         <v>1960</v>
@@ -7452,10 +7606,10 @@
         <v>0.7</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N52" s="2">
         <v>338</v>
@@ -7536,18 +7690,21 @@
         <v>0.4</v>
       </c>
       <c r="AN52" s="1">
+        <v>106.2</v>
+      </c>
+      <c r="AO52" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="53" ht="35.6" spans="1:40">
+    <row r="53" ht="35.6" spans="1:41">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D53" s="1">
         <v>1960</v>
@@ -7575,10 +7732,10 @@
         <v>0.7</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N53" s="2">
         <v>169</v>
@@ -7659,18 +7816,21 @@
         <v>0.4</v>
       </c>
       <c r="AN53" s="1">
+        <v>105.4</v>
+      </c>
+      <c r="AO53" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="54" ht="35.6" spans="1:40">
+    <row r="54" ht="35.6" spans="1:41">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D54" s="1">
         <v>1960</v>
@@ -7698,10 +7858,10 @@
         <v>0.7</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N54" s="2">
         <v>74.54</v>
@@ -7782,18 +7942,21 @@
         <v>0.5</v>
       </c>
       <c r="AN54" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="AO54" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="55" ht="35.6" spans="1:40">
+    <row r="55" ht="35.6" spans="1:41">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D55" s="1">
         <v>1960</v>
@@ -7821,10 +7984,10 @@
         <v>0.7</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N55" s="2">
         <v>36.13</v>
@@ -7905,18 +8068,21 @@
         <v>0.5</v>
       </c>
       <c r="AN55" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="AO55" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="56" ht="35.6" spans="1:40">
+    <row r="56" ht="35.6" spans="1:41">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" s="1">
         <v>1960</v>
@@ -7944,10 +8110,10 @@
         <v>0.7</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N56" s="2">
         <v>17.94</v>
@@ -8028,18 +8194,21 @@
         <v>0.5</v>
       </c>
       <c r="AN56" s="1">
+        <v>103.5</v>
+      </c>
+      <c r="AO56" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="57" ht="35.6" spans="1:40">
+    <row r="57" ht="35.6" spans="1:41">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57" s="1">
         <v>1960</v>
@@ -8067,10 +8236,10 @@
         <v>0.7</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N57" s="2">
         <v>8.458</v>
@@ -8151,18 +8320,21 @@
         <v>0.4</v>
       </c>
       <c r="AN57" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="AO57" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="58" ht="35.6" spans="1:40">
+    <row r="58" ht="35.6" spans="1:41">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58" s="1">
         <v>1960</v>
@@ -8190,10 +8362,10 @@
         <v>0.7</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N58" s="2">
         <v>3.641</v>
@@ -8274,18 +8446,21 @@
         <v>0.4</v>
       </c>
       <c r="AN58" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="AO58" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="59" ht="35.6" spans="1:40">
+    <row r="59" ht="35.6" spans="1:41">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D59" s="1">
         <v>1960</v>
@@ -8313,10 +8488,10 @@
         <v>0.7</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N59" s="2">
         <v>1.633</v>
@@ -8397,18 +8572,21 @@
         <v>0.3</v>
       </c>
       <c r="AN59" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="AO59" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="60" ht="35.6" spans="1:40">
+    <row r="60" ht="35.6" spans="1:41">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D60" s="1">
         <v>1960</v>
@@ -8436,10 +8614,10 @@
         <v>0.7</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N60" s="2">
         <v>0.757</v>
@@ -8520,18 +8698,21 @@
         <v>0.3</v>
       </c>
       <c r="AN60" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="AO60" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="61" ht="35.6" spans="1:40">
+    <row r="61" ht="35.6" spans="1:41">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D61" s="1">
         <v>1960</v>
@@ -8559,10 +8740,10 @@
         <v>0.7</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N61" s="2">
         <v>0.3551</v>
@@ -8643,18 +8824,21 @@
         <v>0.2</v>
       </c>
       <c r="AN61" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="AO61" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="62" ht="35.6" spans="1:40">
+    <row r="62" ht="35.6" spans="1:41">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D62" s="1">
         <v>1960</v>
@@ -8682,10 +8866,10 @@
         <v>0.7</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N62" s="2">
         <v>0.143</v>
@@ -8766,18 +8950,21 @@
         <v>0</v>
       </c>
       <c r="AN62" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO62" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="63" ht="35.6" spans="1:40">
+    <row r="63" ht="35.6" spans="1:41">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" s="1">
         <v>1960</v>
@@ -8805,10 +8992,10 @@
         <v>0.7</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N63" s="2">
         <v>0.04104</v>
@@ -8889,18 +9076,21 @@
         <v>0.2</v>
       </c>
       <c r="AN63" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO63" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="64" ht="35.6" spans="1:40">
+    <row r="64" ht="35.6" spans="1:41">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D64" s="1">
         <v>1960</v>
@@ -8928,10 +9118,10 @@
         <v>0.7</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N64" s="2">
         <v>0.0103</v>
@@ -9012,18 +9202,21 @@
         <v>0.5</v>
       </c>
       <c r="AN64" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO64" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="65" ht="35.6" spans="1:40">
+    <row r="65" ht="35.6" spans="1:41">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="1">
         <v>1960</v>
@@ -9051,10 +9244,10 @@
         <v>0.7</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N65" s="2">
         <v>0.002388</v>
@@ -9135,18 +9328,21 @@
         <v>1</v>
       </c>
       <c r="AN65" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="AO65" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="66" ht="35.6" spans="1:40">
+    <row r="66" ht="35.6" spans="1:41">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D66" s="1">
         <v>1960</v>
@@ -9174,102 +9370,105 @@
         <v>0.7</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N66" s="2">
         <v>0.0001565</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="1">
         <v>3.07e-5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="1">
         <v>7.1</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="1">
         <v>8</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="1">
         <v>12.6</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="1">
         <v>10.8</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
         <v>8.8</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="1">
         <v>6.5</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="1">
         <v>11.6</v>
       </c>
-      <c r="X66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1">
         <v>4.3</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="1">
         <v>10.9</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="1">
         <v>5.9</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="1">
         <v>2</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="1">
         <v>5.9</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AE66" s="1">
         <v>3.1</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AF66" s="1">
         <v>3.3</v>
       </c>
-      <c r="AG66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="3">
+      <c r="AG66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
         <v>0.8</v>
       </c>
-      <c r="AI66" s="3">
+      <c r="AI66" s="1">
         <v>1.4</v>
       </c>
-      <c r="AJ66" s="3">
+      <c r="AJ66" s="1">
         <v>1.6</v>
       </c>
-      <c r="AK66" s="3">
+      <c r="AK66" s="1">
         <v>1.4</v>
       </c>
-      <c r="AL66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="3">
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1">
         <v>1.8</v>
       </c>
       <c r="AN66" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="AO66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" ht="35.6" spans="1:40">
+    <row r="67" ht="35.6" spans="1:41">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D67" s="1">
         <v>1960</v>
@@ -9297,10 +9496,10 @@
         <v>0.7</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N67" s="2">
         <v>15113</v>
@@ -9381,18 +9580,21 @@
         <v>0.1</v>
       </c>
       <c r="AN67" s="1">
+        <v>115.5</v>
+      </c>
+      <c r="AO67" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="68" ht="35.6" spans="1:40">
+    <row r="68" ht="35.6" spans="1:41">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D68" s="1">
         <v>1960</v>
@@ -9420,10 +9622,10 @@
         <v>0.7</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N68" s="2">
         <v>5225</v>
@@ -9504,18 +9706,21 @@
         <v>0.2</v>
       </c>
       <c r="AN68" s="1">
+        <v>112.6</v>
+      </c>
+      <c r="AO68" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="69" ht="35.6" spans="1:40">
+    <row r="69" ht="35.6" spans="1:41">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D69" s="1">
         <v>1960</v>
@@ -9543,10 +9748,10 @@
         <v>0.7</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N69" s="2">
         <v>2179</v>
@@ -9627,18 +9832,21 @@
         <v>0.3</v>
       </c>
       <c r="AN69" s="1">
+        <v>110.4</v>
+      </c>
+      <c r="AO69" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="70" ht="35.6" spans="1:40">
+    <row r="70" ht="35.6" spans="1:41">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D70" s="1">
         <v>1960</v>
@@ -9666,10 +9874,10 @@
         <v>0.7</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N70" s="2">
         <v>956.5</v>
@@ -9750,18 +9958,21 @@
         <v>0.4</v>
       </c>
       <c r="AN70" s="1">
+        <v>108.6</v>
+      </c>
+      <c r="AO70" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="71" ht="35.6" spans="1:40">
+    <row r="71" ht="35.6" spans="1:41">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D71" s="1">
         <v>1960</v>
@@ -9789,10 +10000,10 @@
         <v>0.7</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N71" s="2">
         <v>460.1</v>
@@ -9873,18 +10084,21 @@
         <v>0.4</v>
       </c>
       <c r="AN71" s="1">
+        <v>107.2</v>
+      </c>
+      <c r="AO71" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="72" ht="35.6" spans="1:40">
+    <row r="72" ht="35.6" spans="1:41">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D72" s="1">
         <v>1960</v>
@@ -9912,10 +10126,10 @@
         <v>0.7</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N72" s="2">
         <v>233.1</v>
@@ -9996,18 +10210,21 @@
         <v>0.5</v>
       </c>
       <c r="AN72" s="1">
+        <v>106.2</v>
+      </c>
+      <c r="AO72" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="73" ht="35.6" spans="1:40">
+    <row r="73" ht="35.6" spans="1:41">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D73" s="1">
         <v>1960</v>
@@ -10035,10 +10252,10 @@
         <v>0.7</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N73" s="2">
         <v>109.9</v>
@@ -10119,18 +10336,21 @@
         <v>0.5</v>
       </c>
       <c r="AN73" s="1">
+        <v>105.2</v>
+      </c>
+      <c r="AO73" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="74" ht="35.6" spans="1:40">
+    <row r="74" ht="35.6" spans="1:41">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D74" s="1">
         <v>1960</v>
@@ -10158,10 +10378,10 @@
         <v>0.7</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N74" s="2">
         <v>45.48</v>
@@ -10242,18 +10462,21 @@
         <v>0.5</v>
       </c>
       <c r="AN74" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="AO74" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="75" ht="35.6" spans="1:40">
+    <row r="75" ht="35.6" spans="1:41">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" s="1">
         <v>1960</v>
@@ -10281,10 +10504,10 @@
         <v>0.7</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N75" s="2">
         <v>19.83</v>
@@ -10365,18 +10588,21 @@
         <v>0.5</v>
       </c>
       <c r="AN75" s="1">
+        <v>103.6</v>
+      </c>
+      <c r="AO75" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="76" ht="35.6" spans="1:40">
+    <row r="76" ht="35.6" spans="1:41">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" s="1">
         <v>1960</v>
@@ -10404,10 +10630,10 @@
         <v>0.7</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N76" s="2">
         <v>9.136</v>
@@ -10488,18 +10714,21 @@
         <v>0.5</v>
       </c>
       <c r="AN76" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="AO76" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="77" ht="35.6" spans="1:40">
+    <row r="77" ht="35.6" spans="1:41">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D77" s="1">
         <v>1960</v>
@@ -10527,10 +10756,10 @@
         <v>0.7</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N77" s="2">
         <v>3.734</v>
@@ -10611,18 +10840,21 @@
         <v>0.5</v>
       </c>
       <c r="AN77" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="AO77" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="78" ht="35.6" spans="1:40">
+    <row r="78" ht="35.6" spans="1:41">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D78" s="1">
         <v>1960</v>
@@ -10650,10 +10882,10 @@
         <v>0.7</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N78" s="2">
         <v>1.23</v>
@@ -10734,18 +10966,21 @@
         <v>0.4</v>
       </c>
       <c r="AN78" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="AO78" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="79" ht="35.6" spans="1:40">
+    <row r="79" ht="35.6" spans="1:41">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79" s="1">
         <v>1960</v>
@@ -10773,10 +11008,10 @@
         <v>0.7</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N79" s="2">
         <v>0.3532</v>
@@ -10857,18 +11092,21 @@
         <v>0.3</v>
       </c>
       <c r="AN79" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO79" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="80" ht="35.6" spans="1:40">
+    <row r="80" ht="35.6" spans="1:41">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D80" s="1">
         <v>1960</v>
@@ -10896,10 +11134,10 @@
         <v>0.7</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N80" s="2">
         <v>0.1083</v>
@@ -10980,18 +11218,21 @@
         <v>0.2</v>
       </c>
       <c r="AN80" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="AO80" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="81" ht="35.6" spans="1:40">
+    <row r="81" ht="35.6" spans="1:41">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D81" s="1">
         <v>1960</v>
@@ -11019,10 +11260,10 @@
         <v>0.7</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N81" s="2">
         <v>0.0291</v>
@@ -11103,18 +11344,21 @@
         <v>0</v>
       </c>
       <c r="AN81" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="AO81" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="82" ht="35.6" spans="1:40">
+    <row r="82" ht="35.6" spans="1:41">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D82" s="1">
         <v>1960</v>
@@ -11142,10 +11386,10 @@
         <v>0.7</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N82" s="2">
         <v>0.007082</v>
@@ -11226,18 +11470,21 @@
         <v>0.2</v>
       </c>
       <c r="AN82" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="AO82" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="83" ht="35.6" spans="1:40">
+    <row r="83" ht="35.6" spans="1:41">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D83" s="1">
         <v>1960</v>
@@ -11265,102 +11512,105 @@
         <v>0.7</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N83" s="2">
         <v>0.0003741</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="1">
         <v>4.3e-5</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="1">
         <v>9.9</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="1">
         <v>8.2</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="1">
         <v>13.1</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="1">
         <v>11.7</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="T83" s="1">
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
         <v>9.5</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="1">
         <v>6.5</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="1">
         <v>8.3</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="1">
         <v>6</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Y83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="1">
         <v>6.7</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="1">
         <v>9.6</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="1">
         <v>3.9</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="1">
         <v>3.3</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="1">
         <v>6.4</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AE83" s="1">
         <v>7.5</v>
       </c>
-      <c r="AF83" s="3">
+      <c r="AF83" s="1">
         <v>2.5</v>
       </c>
-      <c r="AG83" s="3">
+      <c r="AG83" s="1">
         <v>2.3</v>
       </c>
-      <c r="AH83" s="3">
+      <c r="AH83" s="1">
         <v>1.4</v>
       </c>
-      <c r="AI83" s="3">
+      <c r="AI83" s="1">
         <v>5.6</v>
       </c>
-      <c r="AJ83" s="3">
+      <c r="AJ83" s="1">
         <v>0.6</v>
       </c>
-      <c r="AK83" s="3">
+      <c r="AK83" s="1">
         <v>1.3</v>
       </c>
-      <c r="AL83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM83" s="3">
+      <c r="AL83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="1">
         <v>0.8</v>
       </c>
       <c r="AN83" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="AO83" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="84" ht="35.6" spans="1:40">
+    <row r="84" ht="35.6" spans="1:41">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D84" s="1">
         <v>1960</v>
@@ -11388,10 +11638,10 @@
         <v>0.7</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N84" s="2">
         <v>11591</v>
@@ -11472,18 +11722,21 @@
         <v>0.1</v>
       </c>
       <c r="AN84" s="1">
+        <v>116.9</v>
+      </c>
+      <c r="AO84" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="85" ht="35.6" spans="1:40">
+    <row r="85" ht="35.6" spans="1:41">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D85" s="1">
         <v>1960</v>
@@ -11511,10 +11764,10 @@
         <v>0.7</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N85" s="2">
         <v>4020</v>
@@ -11595,18 +11848,21 @@
         <v>0.2</v>
       </c>
       <c r="AN85" s="1">
+        <v>113.1</v>
+      </c>
+      <c r="AO85" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="86" ht="35.6" spans="1:40">
+    <row r="86" ht="35.6" spans="1:41">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D86" s="1">
         <v>1960</v>
@@ -11634,10 +11890,10 @@
         <v>0.7</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N86" s="2">
         <v>1555</v>
@@ -11718,18 +11974,21 @@
         <v>0.3</v>
       </c>
       <c r="AN86" s="1">
+        <v>110.2</v>
+      </c>
+      <c r="AO86" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="87" ht="35.6" spans="1:40">
+    <row r="87" ht="35.6" spans="1:41">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D87" s="1">
         <v>1960</v>
@@ -11757,10 +12016,10 @@
         <v>0.7</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N87" s="2">
         <v>664.2</v>
@@ -11841,18 +12100,21 @@
         <v>0.4</v>
       </c>
       <c r="AN87" s="1">
+        <v>108.1</v>
+      </c>
+      <c r="AO87" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="88" ht="35.6" spans="1:40">
+    <row r="88" ht="35.6" spans="1:41">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D88" s="1">
         <v>1960</v>
@@ -11880,10 +12142,10 @@
         <v>0.7</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N88" s="2">
         <v>293.3</v>
@@ -11964,18 +12226,21 @@
         <v>0.5</v>
       </c>
       <c r="AN88" s="1">
+        <v>106.6</v>
+      </c>
+      <c r="AO88" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="89" ht="35.6" spans="1:40">
+    <row r="89" ht="35.6" spans="1:41">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D89" s="1">
         <v>1960</v>
@@ -12003,10 +12268,10 @@
         <v>0.7</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N89" s="2">
         <v>135</v>
@@ -12087,18 +12352,21 @@
         <v>0.5</v>
       </c>
       <c r="AN89" s="1">
+        <v>105.4</v>
+      </c>
+      <c r="AO89" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="90" ht="35.6" spans="1:40">
+    <row r="90" ht="35.6" spans="1:41">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90" s="1">
         <v>1960</v>
@@ -12126,10 +12394,10 @@
         <v>0.7</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N90" s="2">
         <v>56.4</v>
@@ -12210,18 +12478,21 @@
         <v>0.6</v>
       </c>
       <c r="AN90" s="1">
+        <v>104.4</v>
+      </c>
+      <c r="AO90" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="91" ht="35.6" spans="1:40">
+    <row r="91" ht="35.6" spans="1:41">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D91" s="1">
         <v>1960</v>
@@ -12249,10 +12520,10 @@
         <v>0.7</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N91" s="2">
         <v>20.13</v>
@@ -12333,18 +12604,21 @@
         <v>0.6</v>
       </c>
       <c r="AN91" s="1">
+        <v>103.5</v>
+      </c>
+      <c r="AO91" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="92" ht="35.6" spans="1:40">
+    <row r="92" ht="35.6" spans="1:41">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D92" s="1">
         <v>1960</v>
@@ -12372,10 +12646,10 @@
         <v>0.7</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N92" s="2">
         <v>6.279</v>
@@ -12456,18 +12730,21 @@
         <v>0.6</v>
       </c>
       <c r="AN92" s="1">
+        <v>102.9</v>
+      </c>
+      <c r="AO92" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="93" ht="35.6" spans="1:40">
+    <row r="93" ht="35.6" spans="1:41">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D93" s="1">
         <v>1960</v>
@@ -12495,10 +12772,10 @@
         <v>0.7</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N93" s="2">
         <v>1.91</v>
@@ -12579,18 +12856,21 @@
         <v>0.6</v>
       </c>
       <c r="AN93" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="AO93" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="94" ht="35.6" spans="1:40">
+    <row r="94" ht="35.6" spans="1:41">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D94" s="1">
         <v>1960</v>
@@ -12618,10 +12898,10 @@
         <v>0.7</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N94" s="2">
         <v>0.6805</v>
@@ -12702,18 +12982,21 @@
         <v>0.6</v>
       </c>
       <c r="AN94" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO94" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="95" ht="35.6" spans="1:40">
+    <row r="95" ht="35.6" spans="1:41">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D95" s="1">
         <v>1960</v>
@@ -12741,10 +13024,10 @@
         <v>0.7</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N95" s="2">
         <v>0.2176</v>
@@ -12825,18 +13108,21 @@
         <v>0.6</v>
       </c>
       <c r="AN95" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="AO95" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="96" ht="35.6" spans="1:40">
+    <row r="96" ht="35.6" spans="1:41">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D96" s="1">
         <v>1960</v>
@@ -12864,10 +13150,10 @@
         <v>0.7</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N96" s="2">
         <v>0.04463</v>
@@ -12948,18 +13234,21 @@
         <v>0.5</v>
       </c>
       <c r="AN96" s="1">
+        <v>102</v>
+      </c>
+      <c r="AO96" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="97" ht="35.6" spans="1:40">
+    <row r="97" ht="35.6" spans="1:41">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D97" s="1">
         <v>1960</v>
@@ -12987,10 +13276,10 @@
         <v>0.7</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N97" s="2">
         <v>0.006544</v>
@@ -13071,18 +13360,21 @@
         <v>0.3</v>
       </c>
       <c r="AN97" s="1">
+        <v>102</v>
+      </c>
+      <c r="AO97" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="98" ht="35.6" spans="1:40">
+    <row r="98" ht="35.6" spans="1:41">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D98" s="1">
         <v>1960</v>
@@ -13110,102 +13402,105 @@
         <v>0.7</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N98" s="2">
         <v>0.0003747</v>
       </c>
-      <c r="O98" s="3">
+      <c r="O98" s="1">
         <v>6.15e-5</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98" s="1">
         <v>12.9</v>
       </c>
-      <c r="Q98" s="3">
+      <c r="Q98" s="1">
         <v>10.7</v>
       </c>
-      <c r="R98" s="3">
+      <c r="R98" s="1">
         <v>17.5</v>
       </c>
-      <c r="S98" s="3">
+      <c r="S98" s="1">
         <v>17</v>
       </c>
-      <c r="T98" s="3">
-        <v>0</v>
-      </c>
-      <c r="U98" s="3">
+      <c r="T98" s="1">
+        <v>0</v>
+      </c>
+      <c r="U98" s="1">
         <v>12.7</v>
       </c>
-      <c r="V98" s="3">
+      <c r="V98" s="1">
         <v>6.5</v>
       </c>
-      <c r="W98" s="3">
-        <v>0</v>
-      </c>
-      <c r="X98" s="3">
+      <c r="W98" s="1">
+        <v>0</v>
+      </c>
+      <c r="X98" s="1">
         <v>8.9</v>
       </c>
-      <c r="Y98" s="3">
+      <c r="Y98" s="1">
         <v>11</v>
       </c>
-      <c r="Z98" s="3">
+      <c r="Z98" s="1">
         <v>12</v>
       </c>
-      <c r="AA98" s="3">
+      <c r="AA98" s="1">
         <v>21.8</v>
       </c>
-      <c r="AB98" s="3">
+      <c r="AB98" s="1">
         <v>0.2</v>
       </c>
-      <c r="AC98" s="3">
+      <c r="AC98" s="1">
         <v>6.1</v>
       </c>
-      <c r="AD98" s="3">
+      <c r="AD98" s="1">
         <v>5.3</v>
       </c>
-      <c r="AE98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="3">
+      <c r="AE98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG98" s="3">
+      <c r="AG98" s="1">
         <v>4.2</v>
       </c>
-      <c r="AH98" s="3">
+      <c r="AH98" s="1">
         <v>3.9</v>
       </c>
-      <c r="AI98" s="3">
+      <c r="AI98" s="1">
         <v>0.9</v>
       </c>
-      <c r="AJ98" s="3">
+      <c r="AJ98" s="1">
         <v>1</v>
       </c>
-      <c r="AK98" s="3">
+      <c r="AK98" s="1">
         <v>1.5</v>
       </c>
-      <c r="AL98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM98" s="3">
+      <c r="AL98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM98" s="1">
         <v>0.1</v>
       </c>
       <c r="AN98" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="AO98" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="99" ht="35.6" spans="1:40">
+    <row r="99" ht="35.6" spans="1:41">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D99" s="1">
         <v>1960</v>
@@ -13233,10 +13528,10 @@
         <v>0.7</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N99" s="2">
         <v>7154</v>
@@ -13317,18 +13612,21 @@
         <v>0.1</v>
       </c>
       <c r="AN99" s="1">
+        <v>116.2</v>
+      </c>
+      <c r="AO99" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="35.6" spans="1:40">
+    <row r="100" ht="35.6" spans="1:41">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D100" s="1">
         <v>1960</v>
@@ -13356,10 +13654,10 @@
         <v>0.7</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N100" s="2">
         <v>2263</v>
@@ -13440,18 +13738,21 @@
         <v>0.3</v>
       </c>
       <c r="AN100" s="1">
+        <v>111.6</v>
+      </c>
+      <c r="AO100" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="35.6" spans="1:40">
+    <row r="101" ht="35.6" spans="1:41">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D101" s="1">
         <v>1960</v>
@@ -13479,10 +13780,10 @@
         <v>0.7</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N101" s="2">
         <v>734.7</v>
@@ -13563,18 +13864,21 @@
         <v>0.4</v>
       </c>
       <c r="AN101" s="1">
+        <v>108.5</v>
+      </c>
+      <c r="AO101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="35.6" spans="1:40">
+    <row r="102" ht="35.6" spans="1:41">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D102" s="1">
         <v>1960</v>
@@ -13602,10 +13906,10 @@
         <v>0.7</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N102" s="2">
         <v>268.5</v>
@@ -13686,18 +13990,21 @@
         <v>0.5</v>
       </c>
       <c r="AN102" s="1">
+        <v>106.4</v>
+      </c>
+      <c r="AO102" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="35.6" spans="1:40">
+    <row r="103" ht="35.6" spans="1:41">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D103" s="1">
         <v>1960</v>
@@ -13725,10 +14032,10 @@
         <v>0.7</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N103" s="2">
         <v>98.47</v>
@@ -13809,18 +14116,21 @@
         <v>0.6</v>
       </c>
       <c r="AN103" s="1">
+        <v>104.9</v>
+      </c>
+      <c r="AO103" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="35.6" spans="1:40">
+    <row r="104" ht="35.6" spans="1:41">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D104" s="1">
         <v>1960</v>
@@ -13848,10 +14158,10 @@
         <v>0.7</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N104" s="2">
         <v>38.31</v>
@@ -13932,18 +14242,21 @@
         <v>0.7</v>
       </c>
       <c r="AN104" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="AO104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="35.6" spans="1:40">
+    <row r="105" ht="35.6" spans="1:41">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D105" s="1">
         <v>1960</v>
@@ -13971,10 +14284,10 @@
         <v>0.7</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N105" s="2">
         <v>14.53</v>
@@ -14055,18 +14368,21 @@
         <v>0.7</v>
       </c>
       <c r="AN105" s="1">
+        <v>103.2</v>
+      </c>
+      <c r="AO105" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="35.6" spans="1:40">
+    <row r="106" ht="35.6" spans="1:41">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D106" s="1">
         <v>1960</v>
@@ -14094,10 +14410,10 @@
         <v>0.7</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N106" s="2">
         <v>5.643</v>
@@ -14178,18 +14494,21 @@
         <v>0.8</v>
       </c>
       <c r="AN106" s="1">
+        <v>102.7</v>
+      </c>
+      <c r="AO106" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="107" ht="35.6" spans="1:40">
+    <row r="107" ht="35.6" spans="1:41">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D107" s="1">
         <v>1960</v>
@@ -14217,10 +14536,10 @@
         <v>0.7</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N107" s="2">
         <v>1.787</v>
@@ -14301,18 +14620,21 @@
         <v>0.9</v>
       </c>
       <c r="AN107" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="AO107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" ht="35.6" spans="1:40">
+    <row r="108" ht="35.6" spans="1:41">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D108" s="1">
         <v>1960</v>
@@ -14340,10 +14662,10 @@
         <v>0.7</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N108" s="2">
         <v>0.3752</v>
@@ -14424,18 +14746,21 @@
         <v>0.9</v>
       </c>
       <c r="AN108" s="1">
+        <v>102</v>
+      </c>
+      <c r="AO108" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="35.6" spans="1:40">
+    <row r="109" ht="35.6" spans="1:41">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D109" s="1">
         <v>1960</v>
@@ -14463,10 +14788,10 @@
         <v>0.7</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N109" s="2">
         <v>0.07923</v>
@@ -14547,18 +14872,21 @@
         <v>1</v>
       </c>
       <c r="AN109" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="AO109" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="35.6" spans="1:40">
+    <row r="110" ht="35.6" spans="1:41">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D110" s="1">
         <v>1960</v>
@@ -14586,10 +14914,10 @@
         <v>0.7</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N110" s="2">
         <v>0.01048</v>
@@ -14670,18 +14998,21 @@
         <v>1</v>
       </c>
       <c r="AN110" s="1">
+        <v>101.7</v>
+      </c>
+      <c r="AO110" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="35.6" spans="1:40">
+    <row r="111" ht="35.6" spans="1:41">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D111" s="1">
         <v>1960</v>
@@ -14709,90 +15040,93 @@
         <v>0.7</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N111" s="2">
         <v>0.0003314</v>
       </c>
-      <c r="O111" s="3">
+      <c r="O111" s="1">
         <v>6.26e-5</v>
       </c>
-      <c r="P111" s="3">
+      <c r="P111" s="1">
         <v>16.7</v>
       </c>
-      <c r="Q111" s="3">
+      <c r="Q111" s="1">
         <v>12.4</v>
       </c>
-      <c r="R111" s="3">
+      <c r="R111" s="1">
         <v>20.6</v>
       </c>
-      <c r="S111" s="3">
+      <c r="S111" s="1">
         <v>21.4</v>
       </c>
-      <c r="T111" s="3">
+      <c r="T111" s="1">
         <v>15.1</v>
       </c>
-      <c r="U111" s="3">
+      <c r="U111" s="1">
         <v>15</v>
       </c>
-      <c r="V111" s="3">
+      <c r="V111" s="1">
         <v>6.5</v>
       </c>
-      <c r="W111" s="3">
-        <v>0</v>
-      </c>
-      <c r="X111" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="3">
+      <c r="W111" s="1">
+        <v>0</v>
+      </c>
+      <c r="X111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="1">
         <v>14.9</v>
       </c>
-      <c r="Z111" s="3">
+      <c r="Z111" s="1">
         <v>17.8</v>
       </c>
-      <c r="AA111" s="3">
+      <c r="AA111" s="1">
         <v>9.2</v>
       </c>
-      <c r="AB111" s="3">
+      <c r="AB111" s="1">
         <v>0.2</v>
       </c>
-      <c r="AC111" s="3">
+      <c r="AC111" s="1">
         <v>10.3</v>
       </c>
-      <c r="AD111" s="3">
+      <c r="AD111" s="1">
         <v>8.2</v>
       </c>
-      <c r="AE111" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF111" s="3">
+      <c r="AE111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="1">
         <v>3.4</v>
       </c>
-      <c r="AG111" s="3">
+      <c r="AG111" s="1">
         <v>4.9</v>
       </c>
-      <c r="AH111" s="3">
+      <c r="AH111" s="1">
         <v>10.2</v>
       </c>
-      <c r="AI111" s="3">
+      <c r="AI111" s="1">
         <v>0.9</v>
       </c>
-      <c r="AJ111" s="3">
+      <c r="AJ111" s="1">
         <v>4.2</v>
       </c>
-      <c r="AK111" s="3">
+      <c r="AK111" s="1">
         <v>1.6</v>
       </c>
-      <c r="AL111" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM111" s="3">
+      <c r="AL111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM111" s="1">
         <v>0.9</v>
       </c>
       <c r="AN111" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="AO111" s="1">
         <v>1</v>
       </c>
     </row>

--- a/jets/expdata/10001.xlsx
+++ b/jets/expdata/10001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="500"/>
+    <workbookView windowHeight="17880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>%-sys05_c</t>
   </si>
   <si>
-    <t>%-sys06_c</t>
+    <t>%-norm_c</t>
   </si>
   <si>
     <t>%-sys07_c</t>
@@ -156,11 +156,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -176,11 +176,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,10 +190,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,9 +212,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,106 +320,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +336,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,79 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,55 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,25 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,20 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,27 +575,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -627,151 +607,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,7 +780,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,10 +1104,10 @@
   <sheetPr/>
   <dimension ref="A1:AO123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="AH1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AN1" sqref="AN$1:AN$1048576"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
@@ -15299,7 +15299,7 @@
       <c r="P123" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
